--- a/テンプレート/【テンプレ】リリース内表.xlsx
+++ b/テンプレート/【テンプレ】リリース内表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-tsuji\AIアプリ開発\release-creator\テンプレート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6773B4A1-0E83-4FDE-9400-52FD97634CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FE17B0-3D12-4E4E-B5DF-9FEEBABBB505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-7320" yWindow="-12000" windowWidth="17280" windowHeight="9960" xr2:uid="{6E343390-06FF-432A-B5B0-133372514813}"/>
   </bookViews>

--- a/テンプレート/【テンプレ】リリース内表.xlsx
+++ b/テンプレート/【テンプレ】リリース内表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-tsuji\AIアプリ開発\release-creator\テンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-tsuji\AIアプリ開発\release-creator\テンプレート\テンプレ（変更上書きしないで！）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FE17B0-3D12-4E4E-B5DF-9FEEBABBB505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0466FDC-AF37-4C7A-AEC9-05939B52FE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7320" yWindow="-12000" windowWidth="17280" windowHeight="9960" xr2:uid="{6E343390-06FF-432A-B5B0-133372514813}"/>
+    <workbookView xWindow="-15915" yWindow="-16440" windowWidth="29040" windowHeight="15720" xr2:uid="{6E343390-06FF-432A-B5B0-133372514813}"/>
   </bookViews>
   <sheets>
     <sheet name="総合1つ" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="55">
   <si>
     <t>順位</t>
     <rPh sb="0" eb="2">
@@ -596,6 +596,38 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
+      <t>調査 ランキング名 評価項目別ランキング</t>
+    </r>
+    <rPh sb="24" eb="25">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>2025年 オリコン顧客満足度</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="BIZ UDPゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>®</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="BIZ UDPゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
       <t>調査 ランキング名 部門別ランキング</t>
     </r>
     <rPh sb="24" eb="25">
@@ -645,6 +677,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ランキング名 (回答者数：x,xxx名)</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <t>2025年 オリコン顧客満足度</t>
     </r>
@@ -729,6 +768,9 @@
       <t>ソウゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング名 (回答者数：x,xxx名)</t>
   </si>
   <si>
     <r>
@@ -762,62 +804,6 @@
   <si>
     <t>※上記順位以降はサイトに掲載しております。
 調査主体：株式会社oricon ME（202x年xx月x日発表）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>携帯キャリア (回答者数：8,464名)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>楽天モバイル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>au</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>docomo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SoftBank</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>総合 (回答者数：8,464名)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>加入手続き</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2025年 オリコン顧客満足度(R)調査 携帯キャリア 評価項目別ランキング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャンペーン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初期設定のしやすさ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通信速度</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>料金プラン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>端末のラインナップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>利用料金</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2222,9 +2208,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2255,47 +2238,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2305,12 +2270,16 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2321,29 +2290,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -2366,31 +2312,119 @@
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2400,110 +2434,62 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3158,7 +3144,7 @@
       <c r="B3" s="170"/>
       <c r="C3" s="192"/>
       <c r="D3" s="193" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E3" s="194"/>
       <c r="F3" s="191"/>
@@ -3169,11 +3155,11 @@
     <row r="4" spans="1:9" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="196" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="196"/>
-      <c r="E4" s="197"/>
+      <c r="C4" s="195" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="195"/>
+      <c r="E4" s="196"/>
     </row>
     <row r="5" spans="1:9" s="40" customFormat="1" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="39"/>
@@ -3195,10 +3181,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E6" s="17">
-        <v>69.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3208,10 +3194,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="E7" s="19">
-        <v>66.849999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3221,10 +3207,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E8" s="21">
-        <v>66.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3234,10 +3220,10 @@
         <v>19</v>
       </c>
       <c r="D9" s="176" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="E9" s="23">
-        <v>66.180000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3255,11 +3241,11 @@
     </row>
     <row r="11" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
-      <c r="C11" s="198" t="s">
+      <c r="C11" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="198"/>
-      <c r="E11" s="199"/>
+      <c r="D11" s="197"/>
+      <c r="E11" s="198"/>
     </row>
     <row r="12" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I12" s="177"/>
@@ -3330,49 +3316,49 @@
     <row r="1" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="D1" s="200" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
+      <c r="D1" s="199" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="170"/>
       <c r="B2" s="170"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
       <c r="I2" s="170"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="170"/>
       <c r="B3" s="170"/>
       <c r="C3" s="170"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
       <c r="I3" s="170"/>
     </row>
     <row r="4" spans="1:9" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="204" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="204"/>
-      <c r="E4" s="205"/>
+      <c r="C4" s="203" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="203"/>
+      <c r="E4" s="204"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="204" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="204"/>
-      <c r="I4" s="205"/>
+      <c r="G4" s="203" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="203"/>
+      <c r="I4" s="204"/>
     </row>
     <row r="5" spans="1:9" s="40" customFormat="1" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="39"/>
@@ -3404,20 +3390,20 @@
         <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E6" s="17">
-        <v>69.52</v>
+        <v>0</v>
       </c>
       <c r="F6" s="174"/>
       <c r="G6" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I6" s="17">
-        <v>73.260000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3427,20 +3413,20 @@
         <v>4</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="E7" s="19">
-        <v>66.849999999999994</v>
+        <v>0</v>
       </c>
       <c r="F7" s="174"/>
       <c r="G7" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="I7" s="19">
-        <v>70.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3450,20 +3436,20 @@
         <v>5</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E8" s="21">
-        <v>66.55</v>
+        <v>0</v>
       </c>
       <c r="F8" s="174"/>
       <c r="G8" s="20" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I8" s="21">
-        <v>69.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3473,20 +3459,20 @@
         <v>19</v>
       </c>
       <c r="D9" s="176" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="E9" s="23">
-        <v>66.180000000000007</v>
+        <v>0</v>
       </c>
       <c r="F9" s="175"/>
       <c r="G9" s="22" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="176" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="I9" s="23">
-        <v>69.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3503,7 +3489,7 @@
       </c>
       <c r="F10" s="175"/>
       <c r="G10" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" s="176" t="s">
         <v>20</v>
@@ -3514,17 +3500,17 @@
     </row>
     <row r="11" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
-      <c r="C11" s="198" t="s">
+      <c r="C11" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="198"/>
-      <c r="E11" s="199"/>
+      <c r="D11" s="197"/>
+      <c r="E11" s="198"/>
       <c r="F11" s="138"/>
-      <c r="G11" s="198" t="s">
+      <c r="G11" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="198"/>
-      <c r="I11" s="199"/>
+      <c r="H11" s="197"/>
+      <c r="I11" s="198"/>
     </row>
     <row r="12" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I12" s="177"/>
@@ -3630,72 +3616,72 @@
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="137"/>
-      <c r="I2" s="198" t="s">
+      <c r="I2" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="199"/>
+      <c r="J2" s="198"/>
       <c r="K2" s="4" t="s">
         <v>42</v>
       </c>
       <c r="L2" s="2"/>
-      <c r="M2" s="214" t="s">
+      <c r="M2" s="233" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="215"/>
+      <c r="N2" s="234"/>
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="B3" s="212" t="s">
+      <c r="B3" s="231" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="231"/>
       <c r="F3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="208" t="s">
+      <c r="G3" s="227" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="206" t="s">
+      <c r="H3" s="227"/>
+      <c r="I3" s="227"/>
+      <c r="J3" s="228"/>
+      <c r="K3" s="225" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="207"/>
-      <c r="M3" s="216"/>
-      <c r="N3" s="217"/>
+      <c r="L3" s="226"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="236"/>
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="212"/>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
+      <c r="B4" s="231"/>
+      <c r="C4" s="231"/>
+      <c r="D4" s="231"/>
       <c r="E4" s="119"/>
       <c r="F4" s="143"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="208"/>
-      <c r="J4" s="209"/>
-      <c r="K4" s="206"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="218"/>
-      <c r="N4" s="219"/>
+      <c r="G4" s="227"/>
+      <c r="H4" s="227"/>
+      <c r="I4" s="227"/>
+      <c r="J4" s="228"/>
+      <c r="K4" s="225"/>
+      <c r="L4" s="226"/>
+      <c r="M4" s="237"/>
+      <c r="N4" s="238"/>
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="213"/>
-      <c r="C5" s="213"/>
-      <c r="D5" s="213"/>
+      <c r="B5" s="232"/>
+      <c r="C5" s="232"/>
+      <c r="D5" s="232"/>
       <c r="E5" s="71"/>
       <c r="F5" s="138"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="208"/>
-      <c r="J5" s="209"/>
+      <c r="G5" s="227"/>
+      <c r="H5" s="227"/>
+      <c r="I5" s="227"/>
+      <c r="J5" s="228"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -3707,10 +3693,10 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="211"/>
+      <c r="G6" s="229"/>
+      <c r="H6" s="229"/>
+      <c r="I6" s="229"/>
+      <c r="J6" s="230"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -3722,8 +3708,8 @@
       <c r="I7" s="181"/>
       <c r="J7" s="182"/>
       <c r="L7" s="51"/>
-      <c r="M7" s="224"/>
-      <c r="N7" s="224"/>
+      <c r="M7" s="216"/>
+      <c r="N7" s="216"/>
       <c r="O7" s="51"/>
       <c r="P7" s="71"/>
       <c r="Q7" s="71"/>
@@ -3735,25 +3721,25 @@
       <c r="A8" s="2"/>
       <c r="B8" s="73"/>
       <c r="C8" s="180" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" s="179"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="183"/>
       <c r="I8" s="187" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J8" s="184"/>
       <c r="L8" s="51"/>
-      <c r="M8" s="225"/>
-      <c r="N8" s="225"/>
+      <c r="M8" s="217"/>
+      <c r="N8" s="217"/>
       <c r="O8" s="96"/>
       <c r="P8" s="98"/>
       <c r="Q8" s="98"/>
-      <c r="R8" s="232"/>
-      <c r="S8" s="232"/>
-      <c r="T8" s="233"/>
+      <c r="R8" s="205"/>
+      <c r="S8" s="205"/>
+      <c r="T8" s="206"/>
     </row>
     <row r="9" spans="1:20" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
@@ -3771,14 +3757,14 @@
       </c>
       <c r="J9" s="186"/>
       <c r="L9" s="100"/>
-      <c r="M9" s="226"/>
-      <c r="N9" s="226"/>
+      <c r="M9" s="218"/>
+      <c r="N9" s="218"/>
       <c r="O9" s="100"/>
       <c r="P9" s="101"/>
       <c r="Q9" s="101"/>
-      <c r="R9" s="222"/>
-      <c r="S9" s="222"/>
-      <c r="T9" s="223"/>
+      <c r="R9" s="207"/>
+      <c r="S9" s="207"/>
+      <c r="T9" s="208"/>
     </row>
     <row r="10" spans="1:20" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="38"/>
@@ -3792,10 +3778,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="39"/>
-      <c r="F10" s="243" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="244"/>
+      <c r="F10" s="209" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="210"/>
       <c r="H10" s="55" t="s">
         <v>12</v>
       </c>
@@ -3809,8 +3795,8 @@
       <c r="M10" s="49"/>
       <c r="N10" s="49"/>
       <c r="O10" s="102"/>
-      <c r="P10" s="220"/>
-      <c r="Q10" s="221"/>
+      <c r="P10" s="211"/>
+      <c r="Q10" s="212"/>
       <c r="R10" s="103"/>
       <c r="S10" s="103"/>
       <c r="T10" s="103"/>
@@ -3821,10 +3807,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D11" s="17">
-        <v>69.52</v>
+        <v>0</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="34"/>
@@ -3835,10 +3821,10 @@
         <v>30</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="J11" s="17">
-        <v>69.52</v>
+        <v>0</v>
       </c>
       <c r="L11" s="33" t="s">
         <v>37</v>
@@ -3859,10 +3845,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D12" s="19">
-        <v>66.849999999999994</v>
+        <v>0</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="35"/>
@@ -3873,10 +3859,10 @@
         <v>30</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="J12" s="19">
-        <v>66.849999999999994</v>
+        <v>0</v>
       </c>
       <c r="L12" s="33" t="s">
         <v>38</v>
@@ -3897,10 +3883,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D13" s="21">
-        <v>66.55</v>
+        <v>0</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="36"/>
@@ -3911,10 +3897,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="J13" s="21">
-        <v>66.55</v>
+        <v>0</v>
       </c>
       <c r="L13" s="85"/>
       <c r="M13" s="50"/>
@@ -3932,10 +3918,10 @@
         <v>19</v>
       </c>
       <c r="C14" s="112" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D14" s="23">
-        <v>66.180000000000007</v>
+        <v>0</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="37"/>
@@ -3946,10 +3932,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="112" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J14" s="23">
-        <v>66.180000000000007</v>
+        <v>0</v>
       </c>
       <c r="L14" s="85"/>
       <c r="M14" s="47"/>
@@ -3998,19 +3984,19 @@
     </row>
     <row r="16" spans="1:20" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
-      <c r="B16" s="198" t="s">
+      <c r="B16" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="198"/>
-      <c r="D16" s="199"/>
+      <c r="C16" s="197"/>
+      <c r="D16" s="198"/>
       <c r="E16" s="25"/>
       <c r="F16" s="87"/>
       <c r="G16" s="88"/>
-      <c r="H16" s="227" t="s">
+      <c r="H16" s="239" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="228"/>
-      <c r="J16" s="229"/>
+      <c r="I16" s="240"/>
+      <c r="J16" s="241"/>
       <c r="L16" s="96"/>
       <c r="M16" s="123"/>
       <c r="N16" s="104"/>
@@ -4066,13 +4052,13 @@
     <row r="19" spans="1:20" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="96"/>
-      <c r="C19" s="212"/>
-      <c r="D19" s="212"/>
+      <c r="C19" s="231"/>
+      <c r="D19" s="231"/>
       <c r="E19" s="25"/>
       <c r="F19" s="87"/>
-      <c r="H19" s="230"/>
-      <c r="I19" s="198"/>
-      <c r="J19" s="199"/>
+      <c r="H19" s="242"/>
+      <c r="I19" s="197"/>
+      <c r="J19" s="198"/>
       <c r="L19" s="96"/>
       <c r="M19" s="123"/>
       <c r="N19" s="104"/>
@@ -4084,14 +4070,14 @@
       <c r="T19" s="104"/>
     </row>
     <row r="20" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="212"/>
-      <c r="D20" s="212"/>
+      <c r="C20" s="231"/>
+      <c r="D20" s="231"/>
       <c r="E20" s="119"/>
       <c r="F20" s="87"/>
-      <c r="G20" s="230"/>
-      <c r="H20" s="198"/>
-      <c r="I20" s="198"/>
-      <c r="J20" s="199"/>
+      <c r="G20" s="242"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="197"/>
+      <c r="J20" s="198"/>
       <c r="L20" s="51"/>
       <c r="M20" s="51"/>
       <c r="N20" s="106"/>
@@ -4107,10 +4093,10 @@
       <c r="D21" s="141"/>
       <c r="E21" s="119"/>
       <c r="F21" s="119"/>
-      <c r="G21" s="231"/>
-      <c r="H21" s="210"/>
-      <c r="I21" s="210"/>
-      <c r="J21" s="211"/>
+      <c r="G21" s="243"/>
+      <c r="H21" s="229"/>
+      <c r="I21" s="229"/>
+      <c r="J21" s="230"/>
       <c r="L21" s="51"/>
       <c r="M21" s="51"/>
       <c r="N21" s="107"/>
@@ -4130,12 +4116,12 @@
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
       <c r="N22" s="51"/>
-      <c r="O22" s="240"/>
-      <c r="P22" s="241"/>
-      <c r="Q22" s="241"/>
-      <c r="R22" s="241"/>
-      <c r="S22" s="241"/>
-      <c r="T22" s="242"/>
+      <c r="O22" s="213"/>
+      <c r="P22" s="214"/>
+      <c r="Q22" s="214"/>
+      <c r="R22" s="214"/>
+      <c r="S22" s="214"/>
+      <c r="T22" s="215"/>
     </row>
     <row r="23" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="51"/>
@@ -4148,8 +4134,8 @@
       <c r="I23" s="71"/>
       <c r="J23" s="71"/>
       <c r="L23" s="51"/>
-      <c r="M23" s="224"/>
-      <c r="N23" s="224"/>
+      <c r="M23" s="216"/>
+      <c r="N23" s="216"/>
       <c r="O23" s="51"/>
       <c r="P23" s="71"/>
       <c r="Q23" s="71"/>
@@ -4165,18 +4151,18 @@
       <c r="E24" s="96"/>
       <c r="F24" s="98"/>
       <c r="G24" s="98"/>
-      <c r="H24" s="232"/>
-      <c r="I24" s="232"/>
-      <c r="J24" s="233"/>
+      <c r="H24" s="205"/>
+      <c r="I24" s="205"/>
+      <c r="J24" s="206"/>
       <c r="L24" s="99"/>
-      <c r="M24" s="225"/>
-      <c r="N24" s="225"/>
+      <c r="M24" s="217"/>
+      <c r="N24" s="217"/>
       <c r="O24" s="96"/>
       <c r="P24" s="98"/>
       <c r="Q24" s="98"/>
-      <c r="R24" s="232"/>
-      <c r="S24" s="232"/>
-      <c r="T24" s="233"/>
+      <c r="R24" s="205"/>
+      <c r="S24" s="205"/>
+      <c r="T24" s="206"/>
     </row>
     <row r="25" spans="1:20" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
@@ -4186,18 +4172,18 @@
       <c r="E25" s="100"/>
       <c r="F25" s="101"/>
       <c r="G25" s="101"/>
-      <c r="H25" s="222"/>
-      <c r="I25" s="222"/>
-      <c r="J25" s="223"/>
+      <c r="H25" s="207"/>
+      <c r="I25" s="207"/>
+      <c r="J25" s="208"/>
       <c r="L25" s="100"/>
-      <c r="M25" s="226"/>
-      <c r="N25" s="226"/>
+      <c r="M25" s="218"/>
+      <c r="N25" s="218"/>
       <c r="O25" s="100"/>
       <c r="P25" s="101"/>
       <c r="Q25" s="101"/>
-      <c r="R25" s="222"/>
-      <c r="S25" s="222"/>
-      <c r="T25" s="223"/>
+      <c r="R25" s="207"/>
+      <c r="S25" s="207"/>
+      <c r="T25" s="208"/>
     </row>
     <row r="26" spans="1:20" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="38"/>
@@ -4205,8 +4191,8 @@
       <c r="C26" s="49"/>
       <c r="D26" s="49"/>
       <c r="E26" s="102"/>
-      <c r="F26" s="220"/>
-      <c r="G26" s="221"/>
+      <c r="F26" s="211"/>
+      <c r="G26" s="212"/>
       <c r="H26" s="103"/>
       <c r="I26" s="103"/>
       <c r="J26" s="103"/>
@@ -4214,8 +4200,8 @@
       <c r="M26" s="49"/>
       <c r="N26" s="49"/>
       <c r="O26" s="102"/>
-      <c r="P26" s="220"/>
-      <c r="Q26" s="221"/>
+      <c r="P26" s="211"/>
+      <c r="Q26" s="212"/>
       <c r="R26" s="103"/>
       <c r="S26" s="103"/>
       <c r="T26" s="103"/>
@@ -4306,15 +4292,15 @@
     </row>
     <row r="31" spans="1:20" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
-      <c r="B31" s="234"/>
-      <c r="C31" s="235"/>
-      <c r="D31" s="236"/>
+      <c r="B31" s="219"/>
+      <c r="C31" s="220"/>
+      <c r="D31" s="221"/>
       <c r="E31" s="104"/>
       <c r="F31" s="87"/>
-      <c r="G31" s="235"/>
-      <c r="H31" s="235"/>
-      <c r="I31" s="235"/>
-      <c r="J31" s="235"/>
+      <c r="G31" s="220"/>
+      <c r="H31" s="220"/>
+      <c r="I31" s="220"/>
+      <c r="J31" s="220"/>
       <c r="K31" s="111"/>
       <c r="L31" s="85"/>
       <c r="M31" s="47"/>
@@ -4367,12 +4353,12 @@
       <c r="T33" s="108"/>
     </row>
     <row r="34" spans="1:21" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="237"/>
-      <c r="F34" s="238"/>
-      <c r="G34" s="238"/>
-      <c r="H34" s="238"/>
-      <c r="I34" s="238"/>
-      <c r="J34" s="239"/>
+      <c r="E34" s="222"/>
+      <c r="F34" s="223"/>
+      <c r="G34" s="223"/>
+      <c r="H34" s="223"/>
+      <c r="I34" s="223"/>
+      <c r="J34" s="224"/>
       <c r="L34" s="51"/>
       <c r="M34" s="51"/>
       <c r="N34" s="51"/>
@@ -4386,8 +4372,8 @@
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="58"/>
-      <c r="C35" s="224"/>
-      <c r="D35" s="224"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="216"/>
       <c r="E35" s="58"/>
       <c r="F35" s="97"/>
       <c r="G35" s="97"/>
@@ -4395,8 +4381,8 @@
       <c r="I35" s="97"/>
       <c r="J35" s="109"/>
       <c r="L35" s="58"/>
-      <c r="M35" s="224"/>
-      <c r="N35" s="224"/>
+      <c r="M35" s="216"/>
+      <c r="N35" s="216"/>
       <c r="O35" s="58"/>
       <c r="P35" s="97"/>
       <c r="Q35" s="97"/>
@@ -4407,44 +4393,44 @@
     <row r="36" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="99"/>
-      <c r="C36" s="225"/>
-      <c r="D36" s="225"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="217"/>
       <c r="E36" s="96"/>
       <c r="F36" s="98"/>
       <c r="G36" s="98"/>
-      <c r="H36" s="232"/>
-      <c r="I36" s="232"/>
-      <c r="J36" s="233"/>
+      <c r="H36" s="205"/>
+      <c r="I36" s="205"/>
+      <c r="J36" s="206"/>
       <c r="L36" s="99"/>
-      <c r="M36" s="225"/>
-      <c r="N36" s="225"/>
+      <c r="M36" s="217"/>
+      <c r="N36" s="217"/>
       <c r="O36" s="96"/>
       <c r="P36" s="98"/>
       <c r="Q36" s="98"/>
-      <c r="R36" s="232"/>
-      <c r="S36" s="232"/>
-      <c r="T36" s="233"/>
+      <c r="R36" s="205"/>
+      <c r="S36" s="205"/>
+      <c r="T36" s="206"/>
     </row>
     <row r="37" spans="1:21" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="100"/>
-      <c r="C37" s="226"/>
-      <c r="D37" s="226"/>
+      <c r="C37" s="218"/>
+      <c r="D37" s="218"/>
       <c r="E37" s="100"/>
       <c r="F37" s="101"/>
       <c r="G37" s="101"/>
-      <c r="H37" s="222"/>
-      <c r="I37" s="222"/>
-      <c r="J37" s="223"/>
+      <c r="H37" s="207"/>
+      <c r="I37" s="207"/>
+      <c r="J37" s="208"/>
       <c r="L37" s="100"/>
-      <c r="M37" s="226"/>
-      <c r="N37" s="226"/>
+      <c r="M37" s="218"/>
+      <c r="N37" s="218"/>
       <c r="O37" s="100"/>
       <c r="P37" s="101"/>
       <c r="Q37" s="101"/>
-      <c r="R37" s="222"/>
-      <c r="S37" s="222"/>
-      <c r="T37" s="223"/>
+      <c r="R37" s="207"/>
+      <c r="S37" s="207"/>
+      <c r="T37" s="208"/>
     </row>
     <row r="38" spans="1:21" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="38"/>
@@ -4452,8 +4438,8 @@
       <c r="C38" s="49"/>
       <c r="D38" s="49"/>
       <c r="E38" s="102"/>
-      <c r="F38" s="220"/>
-      <c r="G38" s="221"/>
+      <c r="F38" s="211"/>
+      <c r="G38" s="212"/>
       <c r="H38" s="103"/>
       <c r="I38" s="103"/>
       <c r="J38" s="103"/>
@@ -4461,8 +4447,8 @@
       <c r="M38" s="49"/>
       <c r="N38" s="49"/>
       <c r="O38" s="102"/>
-      <c r="P38" s="220"/>
-      <c r="Q38" s="221"/>
+      <c r="P38" s="211"/>
+      <c r="Q38" s="212"/>
       <c r="R38" s="103"/>
       <c r="S38" s="103"/>
       <c r="T38" s="103"/>
@@ -4632,18 +4618,18 @@
       <c r="L46" s="51"/>
       <c r="M46" s="51"/>
       <c r="N46" s="51"/>
-      <c r="O46" s="240"/>
-      <c r="P46" s="241"/>
-      <c r="Q46" s="241"/>
-      <c r="R46" s="241"/>
-      <c r="S46" s="241"/>
-      <c r="T46" s="242"/>
+      <c r="O46" s="213"/>
+      <c r="P46" s="214"/>
+      <c r="Q46" s="214"/>
+      <c r="R46" s="214"/>
+      <c r="S46" s="214"/>
+      <c r="T46" s="215"/>
       <c r="U46" s="51"/>
     </row>
     <row r="47" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="51"/>
-      <c r="C47" s="224"/>
-      <c r="D47" s="224"/>
+      <c r="C47" s="216"/>
+      <c r="D47" s="216"/>
       <c r="E47" s="51"/>
       <c r="F47" s="71"/>
       <c r="G47" s="71"/>
@@ -4651,8 +4637,8 @@
       <c r="I47" s="71"/>
       <c r="J47" s="71"/>
       <c r="L47" s="51"/>
-      <c r="M47" s="224"/>
-      <c r="N47" s="224"/>
+      <c r="M47" s="216"/>
+      <c r="N47" s="216"/>
       <c r="O47" s="51"/>
       <c r="P47" s="71"/>
       <c r="Q47" s="71"/>
@@ -4664,47 +4650,47 @@
     <row r="48" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="99"/>
-      <c r="C48" s="225"/>
-      <c r="D48" s="225"/>
+      <c r="C48" s="217"/>
+      <c r="D48" s="217"/>
       <c r="E48" s="96"/>
       <c r="F48" s="98"/>
       <c r="G48" s="98"/>
-      <c r="H48" s="232"/>
-      <c r="I48" s="232"/>
-      <c r="J48" s="233"/>
+      <c r="H48" s="205"/>
+      <c r="I48" s="205"/>
+      <c r="J48" s="206"/>
       <c r="K48" s="2"/>
       <c r="L48" s="99"/>
-      <c r="M48" s="225"/>
-      <c r="N48" s="225"/>
+      <c r="M48" s="217"/>
+      <c r="N48" s="217"/>
       <c r="O48" s="96"/>
       <c r="P48" s="98"/>
       <c r="Q48" s="98"/>
-      <c r="R48" s="232"/>
-      <c r="S48" s="232"/>
-      <c r="T48" s="233"/>
+      <c r="R48" s="205"/>
+      <c r="S48" s="205"/>
+      <c r="T48" s="206"/>
       <c r="U48" s="51"/>
     </row>
     <row r="49" spans="1:21" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="100"/>
-      <c r="C49" s="226"/>
-      <c r="D49" s="226"/>
+      <c r="C49" s="218"/>
+      <c r="D49" s="218"/>
       <c r="E49" s="100"/>
       <c r="F49" s="101"/>
       <c r="G49" s="101"/>
-      <c r="H49" s="222"/>
-      <c r="I49" s="222"/>
-      <c r="J49" s="223"/>
+      <c r="H49" s="207"/>
+      <c r="I49" s="207"/>
+      <c r="J49" s="208"/>
       <c r="K49" s="2"/>
       <c r="L49" s="100"/>
-      <c r="M49" s="226"/>
-      <c r="N49" s="226"/>
+      <c r="M49" s="218"/>
+      <c r="N49" s="218"/>
       <c r="O49" s="100"/>
       <c r="P49" s="101"/>
       <c r="Q49" s="101"/>
-      <c r="R49" s="222"/>
-      <c r="S49" s="222"/>
-      <c r="T49" s="223"/>
+      <c r="R49" s="207"/>
+      <c r="S49" s="207"/>
+      <c r="T49" s="208"/>
       <c r="U49" s="51"/>
     </row>
     <row r="50" spans="1:21" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4713,8 +4699,8 @@
       <c r="C50" s="49"/>
       <c r="D50" s="49"/>
       <c r="E50" s="102"/>
-      <c r="F50" s="220"/>
-      <c r="G50" s="221"/>
+      <c r="F50" s="211"/>
+      <c r="G50" s="212"/>
       <c r="H50" s="103"/>
       <c r="I50" s="103"/>
       <c r="J50" s="103"/>
@@ -4723,8 +4709,8 @@
       <c r="M50" s="49"/>
       <c r="N50" s="49"/>
       <c r="O50" s="102"/>
-      <c r="P50" s="220"/>
-      <c r="Q50" s="221"/>
+      <c r="P50" s="211"/>
+      <c r="Q50" s="212"/>
       <c r="R50" s="103"/>
       <c r="S50" s="103"/>
       <c r="T50" s="103"/>
@@ -4957,21 +4943,18 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="R48:T48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="O46:T46"/>
-    <mergeCell ref="M35:N37"/>
-    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="G3:J6"/>
+    <mergeCell ref="B3:D5"/>
+    <mergeCell ref="M2:N4"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="M7:N9"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="G20:J21"/>
     <mergeCell ref="P50:Q50"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="C47:D49"/>
@@ -4988,18 +4971,21 @@
     <mergeCell ref="M23:N25"/>
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="R24:T24"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="G3:J6"/>
-    <mergeCell ref="B3:D5"/>
-    <mergeCell ref="M2:N4"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="M7:N9"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="G20:J21"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="O46:T46"/>
+    <mergeCell ref="M35:N37"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R25:T25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F2:F3 F11:F17">
@@ -5136,13 +5122,13 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="145"/>
-      <c r="F2" s="254" t="s">
+      <c r="F2" s="249" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="256"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="251"/>
       <c r="K2" s="146"/>
       <c r="L2" s="6"/>
       <c r="M2" s="52"/>
@@ -5150,17 +5136,17 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:21" ht="37.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="263" t="s">
+      <c r="B3" s="258" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="264"/>
+      <c r="C3" s="259"/>
       <c r="D3" s="6"/>
       <c r="E3" s="145"/>
-      <c r="F3" s="257"/>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="259"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="253"/>
+      <c r="H3" s="253"/>
+      <c r="I3" s="253"/>
+      <c r="J3" s="254"/>
       <c r="K3" s="146"/>
       <c r="L3" s="6"/>
       <c r="M3" s="52"/>
@@ -5172,11 +5158,11 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="145"/>
-      <c r="F4" s="260"/>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
-      <c r="I4" s="261"/>
-      <c r="J4" s="262"/>
+      <c r="F4" s="255"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="257"/>
       <c r="K4" s="146"/>
       <c r="L4" s="6"/>
       <c r="M4" s="52"/>
@@ -5219,7 +5205,7 @@
     </row>
     <row r="7" spans="1:21" ht="29.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="15" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="150"/>
@@ -5238,25 +5224,25 @@
     <row r="8" spans="1:21" s="94" customFormat="1" ht="23.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="90"/>
       <c r="B8" s="91" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="C8" s="92"/>
       <c r="D8" s="92"/>
       <c r="E8" s="93"/>
       <c r="F8" s="91" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G8" s="92"/>
       <c r="H8" s="92"/>
       <c r="I8" s="93"/>
       <c r="J8" s="91" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="K8" s="92"/>
       <c r="L8" s="92"/>
       <c r="M8" s="93"/>
       <c r="N8" s="91" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="O8" s="92"/>
       <c r="P8" s="92"/>
@@ -5311,40 +5297,40 @@
         <v>3</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D10" s="17">
-        <v>73.260000000000005</v>
+        <v>0</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="H10" s="17">
-        <v>71.77</v>
+        <v>0</v>
       </c>
       <c r="I10" s="48"/>
       <c r="J10" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="L10" s="17">
-        <v>72.66</v>
+        <v>0</v>
       </c>
       <c r="M10" s="48"/>
       <c r="N10" s="10" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="P10" s="17">
-        <v>71.52</v>
+        <v>0</v>
       </c>
       <c r="S10" s="40"/>
       <c r="T10" s="41"/>
@@ -5356,40 +5342,40 @@
         <v>4</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D11" s="19">
-        <v>70.42</v>
+        <v>0</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="12" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="H11" s="19">
-        <v>66.22</v>
+        <v>0</v>
       </c>
       <c r="I11" s="48"/>
       <c r="J11" s="12" t="s">
         <v>4</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="L11" s="19">
-        <v>68.930000000000007</v>
+        <v>0</v>
       </c>
       <c r="M11" s="48"/>
       <c r="N11" s="12" t="s">
         <v>4</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="P11" s="19">
-        <v>71.22</v>
+        <v>0</v>
       </c>
       <c r="T11" s="1"/>
     </row>
@@ -5399,40 +5385,40 @@
         <v>5</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D12" s="21">
-        <v>69.88</v>
+        <v>0</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="H12" s="21">
-        <v>66.040000000000006</v>
+        <v>0</v>
       </c>
       <c r="I12" s="48"/>
       <c r="J12" s="11" t="s">
         <v>5</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="L12" s="21">
-        <v>68.150000000000006</v>
+        <v>0</v>
       </c>
       <c r="M12" s="48"/>
       <c r="N12" s="11" t="s">
         <v>5</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="P12" s="21">
-        <v>70.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1"/>
     </row>
@@ -5458,19 +5444,19 @@
     <row r="14" spans="1:21" s="79" customFormat="1" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76"/>
       <c r="B14" s="91" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C14" s="92"/>
       <c r="D14" s="92"/>
       <c r="E14" s="78"/>
       <c r="F14" s="74" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G14" s="77"/>
       <c r="H14" s="77"/>
       <c r="I14" s="78"/>
       <c r="J14" s="91" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="K14" s="92"/>
       <c r="L14" s="92"/>
@@ -5533,30 +5519,30 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D16" s="17">
-        <v>73.34</v>
+        <v>0</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="H16" s="17">
-        <v>64.989999999999995</v>
+        <v>0</v>
       </c>
       <c r="I16" s="48"/>
       <c r="J16" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="L16" s="17">
-        <v>69.56</v>
+        <v>0</v>
       </c>
       <c r="M16" s="48"/>
       <c r="N16" s="10" t="s">
@@ -5577,30 +5563,30 @@
         <v>4</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D17" s="19">
-        <v>66.150000000000006</v>
+        <v>0</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="12" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="H17" s="19">
-        <v>64.5</v>
+        <v>0</v>
       </c>
       <c r="I17" s="48"/>
       <c r="J17" s="12" t="s">
         <v>4</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="L17" s="19">
-        <v>65.66</v>
+        <v>0</v>
       </c>
       <c r="M17" s="48"/>
       <c r="N17" s="12" t="s">
@@ -5619,30 +5605,30 @@
         <v>16</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D18" s="21">
-        <v>65.849999999999994</v>
+        <v>0</v>
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="11" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="H18" s="21">
-        <v>64.17</v>
+        <v>0</v>
       </c>
       <c r="I18" s="48"/>
       <c r="J18" s="11" t="s">
         <v>5</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="L18" s="21">
-        <v>65.48</v>
+        <v>0</v>
       </c>
       <c r="M18" s="48"/>
       <c r="N18" s="11" t="s">
@@ -5861,13 +5847,13 @@
       <c r="I24" s="117"/>
       <c r="J24" s="115"/>
       <c r="K24" s="126"/>
-      <c r="L24" s="195"/>
-      <c r="M24" s="195"/>
-      <c r="N24" s="265" t="s">
-        <v>51</v>
-      </c>
-      <c r="O24" s="265"/>
-      <c r="P24" s="265"/>
+      <c r="L24" s="283"/>
+      <c r="M24" s="283"/>
+      <c r="N24" s="244" t="s">
+        <v>54</v>
+      </c>
+      <c r="O24" s="244"/>
+      <c r="P24" s="244"/>
       <c r="Q24" s="113"/>
       <c r="R24" s="113"/>
       <c r="S24" s="113"/>
@@ -5904,7 +5890,7 @@
     <row r="27" spans="1:24" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -5915,14 +5901,14 @@
     </row>
     <row r="28" spans="1:24" s="69" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="67"/>
-      <c r="B28" s="247" t="s">
+      <c r="B28" s="260" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="253"/>
+      <c r="C28" s="261"/>
       <c r="D28" s="66"/>
       <c r="E28" s="66"/>
-      <c r="F28" s="247"/>
-      <c r="G28" s="253"/>
+      <c r="F28" s="260"/>
+      <c r="G28" s="261"/>
       <c r="H28" s="68"/>
       <c r="I28" s="70"/>
       <c r="J28" s="70"/>
@@ -5958,8 +5944,8 @@
       </c>
       <c r="O29" s="65"/>
       <c r="P29" s="66"/>
-      <c r="V29" s="245"/>
-      <c r="W29" s="246"/>
+      <c r="V29" s="262"/>
+      <c r="W29" s="263"/>
       <c r="X29" s="68"/>
     </row>
     <row r="30" spans="1:24" s="40" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6142,10 +6128,10 @@
     </row>
     <row r="34" spans="1:24" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
-      <c r="B34" s="247" t="s">
+      <c r="B34" s="260" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="253"/>
+      <c r="C34" s="261"/>
       <c r="D34" s="104"/>
       <c r="E34" s="58"/>
       <c r="F34" s="46"/>
@@ -6378,10 +6364,10 @@
     </row>
     <row r="40" spans="1:24" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="251" t="s">
+      <c r="B40" s="284" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="252"/>
+      <c r="C40" s="285"/>
       <c r="D40" s="104"/>
       <c r="E40" s="58"/>
       <c r="F40" s="46"/>
@@ -6601,16 +6587,16 @@
       <c r="P45" s="21">
         <v>0</v>
       </c>
-      <c r="V45" s="245"/>
-      <c r="W45" s="246"/>
+      <c r="V45" s="262"/>
+      <c r="W45" s="263"/>
       <c r="X45" s="68"/>
     </row>
     <row r="46" spans="1:24" s="40" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="41"/>
-      <c r="B46" s="247" t="s">
+      <c r="B46" s="260" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="253"/>
+      <c r="C46" s="261"/>
       <c r="D46" s="104"/>
       <c r="E46" s="58"/>
       <c r="F46" s="46"/>
@@ -6877,9 +6863,9 @@
       <c r="C55" s="51"/>
       <c r="D55" s="51"/>
       <c r="E55" s="118"/>
-      <c r="F55" s="249"/>
-      <c r="G55" s="250"/>
-      <c r="H55" s="250"/>
+      <c r="F55" s="265"/>
+      <c r="G55" s="266"/>
+      <c r="H55" s="266"/>
       <c r="J55" s="51"/>
       <c r="K55" s="51"/>
       <c r="L55" s="51"/>
@@ -6900,8 +6886,8 @@
     <row r="57" spans="1:24" s="69" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="67"/>
       <c r="E57" s="66"/>
-      <c r="F57" s="247"/>
-      <c r="G57" s="248"/>
+      <c r="F57" s="260"/>
+      <c r="G57" s="264"/>
       <c r="H57" s="68"/>
       <c r="I57" s="70"/>
       <c r="M57" s="70"/>
@@ -6919,8 +6905,8 @@
       <c r="N58" s="75"/>
       <c r="O58" s="65"/>
       <c r="P58" s="66"/>
-      <c r="V58" s="245"/>
-      <c r="W58" s="246"/>
+      <c r="V58" s="262"/>
+      <c r="W58" s="263"/>
       <c r="X58" s="68"/>
     </row>
     <row r="59" spans="1:24" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7013,7 +6999,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F55:H55"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="F2:J4"/>
@@ -7021,11 +7011,7 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="F28:G28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="N24:P24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7091,13 +7077,13 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="145"/>
-      <c r="F2" s="254" t="s">
+      <c r="F2" s="249" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="256"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="251"/>
       <c r="K2" s="146"/>
       <c r="L2" s="6"/>
       <c r="M2" s="52"/>
@@ -7105,17 +7091,17 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:21" ht="43.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="263" t="s">
+      <c r="B3" s="258" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="264"/>
+      <c r="C3" s="259"/>
       <c r="D3" s="6"/>
       <c r="E3" s="145"/>
-      <c r="F3" s="257"/>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="259"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="253"/>
+      <c r="H3" s="253"/>
+      <c r="I3" s="253"/>
+      <c r="J3" s="254"/>
       <c r="K3" s="146"/>
       <c r="L3" s="6"/>
       <c r="M3" s="52"/>
@@ -7127,11 +7113,11 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="145"/>
-      <c r="F4" s="260"/>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
-      <c r="I4" s="261"/>
-      <c r="J4" s="262"/>
+      <c r="F4" s="255"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="257"/>
       <c r="K4" s="146"/>
       <c r="L4" s="6"/>
       <c r="M4" s="52"/>
@@ -7139,10 +7125,10 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="32.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="276" t="s">
+      <c r="B5" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="265"/>
+      <c r="C5" s="244"/>
       <c r="D5" s="113"/>
       <c r="E5" s="169"/>
       <c r="F5" s="147"/>
@@ -7180,19 +7166,19 @@
     </row>
     <row r="7" spans="1:21" ht="59.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
-      <c r="B7" s="285" t="s">
+      <c r="B7" s="270" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="285"/>
-      <c r="D7" s="285"/>
-      <c r="E7" s="285"/>
-      <c r="F7" s="285"/>
-      <c r="G7" s="285"/>
-      <c r="H7" s="285"/>
-      <c r="I7" s="285"/>
-      <c r="J7" s="285"/>
-      <c r="K7" s="285"/>
-      <c r="L7" s="285"/>
+      <c r="C7" s="270"/>
+      <c r="D7" s="270"/>
+      <c r="E7" s="270"/>
+      <c r="F7" s="270"/>
+      <c r="G7" s="270"/>
+      <c r="H7" s="270"/>
+      <c r="I7" s="270"/>
+      <c r="J7" s="270"/>
+      <c r="K7" s="270"/>
+      <c r="L7" s="270"/>
       <c r="M7" s="58"/>
       <c r="N7" s="58"/>
       <c r="O7" s="58"/>
@@ -7202,23 +7188,23 @@
     </row>
     <row r="8" spans="1:21" s="94" customFormat="1" ht="23.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="90"/>
-      <c r="B8" s="282" t="s">
+      <c r="B8" s="267" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="283"/>
-      <c r="D8" s="284"/>
+      <c r="C8" s="268"/>
+      <c r="D8" s="269"/>
       <c r="E8" s="93"/>
-      <c r="F8" s="282" t="s">
+      <c r="F8" s="267" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="283"/>
-      <c r="H8" s="284"/>
+      <c r="G8" s="268"/>
+      <c r="H8" s="269"/>
       <c r="I8" s="58"/>
-      <c r="J8" s="282" t="s">
+      <c r="J8" s="267" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="283"/>
-      <c r="L8" s="284"/>
+      <c r="K8" s="268"/>
+      <c r="L8" s="269"/>
       <c r="M8" s="58"/>
       <c r="N8" s="58"/>
       <c r="O8" s="58"/>
@@ -7400,23 +7386,23 @@
     </row>
     <row r="15" spans="1:21" s="79" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="158"/>
-      <c r="B15" s="282" t="s">
+      <c r="B15" s="267" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="283"/>
-      <c r="D15" s="284"/>
+      <c r="C15" s="268"/>
+      <c r="D15" s="269"/>
       <c r="E15" s="93"/>
-      <c r="F15" s="282" t="s">
+      <c r="F15" s="267" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="283"/>
-      <c r="H15" s="284"/>
+      <c r="G15" s="268"/>
+      <c r="H15" s="269"/>
       <c r="I15" s="58"/>
-      <c r="J15" s="282" t="s">
+      <c r="J15" s="267" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="283"/>
-      <c r="L15" s="284"/>
+      <c r="K15" s="268"/>
+      <c r="L15" s="269"/>
       <c r="M15" s="58"/>
       <c r="N15" s="58"/>
       <c r="O15" s="58"/>
@@ -7582,10 +7568,10 @@
       <c r="H20" s="168"/>
       <c r="I20" s="58"/>
       <c r="J20" s="58"/>
-      <c r="K20" s="276" t="s">
+      <c r="K20" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="L20" s="265"/>
+      <c r="L20" s="244"/>
       <c r="M20" s="58"/>
       <c r="N20" s="58"/>
       <c r="O20" s="58"/>
@@ -7594,15 +7580,15 @@
     </row>
     <row r="21" spans="1:21" s="94" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="90"/>
-      <c r="B21" s="277" t="s">
+      <c r="B21" s="272" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="277"/>
-      <c r="D21" s="277"/>
+      <c r="C21" s="272"/>
+      <c r="D21" s="272"/>
       <c r="E21" s="93"/>
-      <c r="F21" s="278"/>
-      <c r="G21" s="279"/>
-      <c r="H21" s="280"/>
+      <c r="F21" s="273"/>
+      <c r="G21" s="274"/>
+      <c r="H21" s="275"/>
       <c r="I21" s="166"/>
       <c r="J21" s="166"/>
       <c r="K21" s="166"/>
@@ -7616,11 +7602,11 @@
     </row>
     <row r="22" spans="1:21" s="40" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="41"/>
-      <c r="B22" s="268" t="s">
+      <c r="B22" s="277" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="269"/>
-      <c r="D22" s="269"/>
+      <c r="C22" s="278"/>
+      <c r="D22" s="278"/>
       <c r="E22" s="49"/>
       <c r="I22" s="49"/>
       <c r="J22" s="49"/>
@@ -7735,9 +7721,9 @@
     </row>
     <row r="27" spans="1:21" ht="7.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="161"/>
-      <c r="B27" s="281"/>
-      <c r="C27" s="281"/>
-      <c r="D27" s="281"/>
+      <c r="B27" s="276"/>
+      <c r="C27" s="276"/>
+      <c r="D27" s="276"/>
       <c r="E27" s="162"/>
       <c r="F27" s="162"/>
       <c r="G27" s="162"/>
@@ -7754,23 +7740,23 @@
     </row>
     <row r="28" spans="1:21" s="79" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="161"/>
-      <c r="B28" s="268" t="s">
+      <c r="B28" s="277" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="269"/>
-      <c r="D28" s="269"/>
+      <c r="C28" s="278"/>
+      <c r="D28" s="278"/>
       <c r="E28" s="162"/>
       <c r="F28" s="162"/>
       <c r="G28" s="162"/>
       <c r="H28" s="162"/>
       <c r="I28" s="78"/>
-      <c r="J28" s="266"/>
-      <c r="K28" s="267"/>
-      <c r="L28" s="267"/>
+      <c r="J28" s="279"/>
+      <c r="K28" s="280"/>
+      <c r="L28" s="280"/>
       <c r="M28" s="93"/>
-      <c r="N28" s="266"/>
-      <c r="O28" s="267"/>
-      <c r="P28" s="267"/>
+      <c r="N28" s="279"/>
+      <c r="O28" s="280"/>
+      <c r="P28" s="280"/>
       <c r="S28" s="80"/>
       <c r="T28" s="80"/>
     </row>
@@ -7897,11 +7883,11 @@
     </row>
     <row r="34" spans="1:24" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="161"/>
-      <c r="B34" s="268" t="s">
+      <c r="B34" s="277" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="269"/>
-      <c r="D34" s="270"/>
+      <c r="C34" s="278"/>
+      <c r="D34" s="281"/>
       <c r="E34" s="162"/>
       <c r="F34" s="162"/>
       <c r="G34" s="162"/>
@@ -7991,9 +7977,9 @@
       <c r="K37" s="50"/>
       <c r="L37" s="86"/>
       <c r="M37" s="48"/>
-      <c r="N37" s="271"/>
-      <c r="O37" s="272"/>
-      <c r="P37" s="273"/>
+      <c r="N37" s="245"/>
+      <c r="O37" s="246"/>
+      <c r="P37" s="247"/>
       <c r="R37" s="46"/>
       <c r="S37" s="50"/>
       <c r="T37" s="48"/>
@@ -8028,11 +8014,11 @@
     </row>
     <row r="39" spans="1:24" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
-      <c r="B39" s="271" t="s">
+      <c r="B39" s="245" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="272"/>
-      <c r="D39" s="274"/>
+      <c r="C39" s="246"/>
+      <c r="D39" s="282"/>
       <c r="E39" s="134"/>
       <c r="F39" s="135"/>
       <c r="G39" s="47"/>
@@ -8042,9 +8028,9 @@
       <c r="K39" s="136"/>
       <c r="L39" s="118"/>
       <c r="M39" s="118"/>
-      <c r="N39" s="275"/>
-      <c r="O39" s="275"/>
-      <c r="P39" s="275"/>
+      <c r="N39" s="248"/>
+      <c r="O39" s="248"/>
+      <c r="P39" s="248"/>
       <c r="Q39" s="63"/>
       <c r="R39" s="63"/>
       <c r="S39" s="63"/>
@@ -8066,8 +8052,8 @@
     <row r="41" spans="1:24" s="69" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="67"/>
       <c r="E41" s="66"/>
-      <c r="F41" s="247"/>
-      <c r="G41" s="248"/>
+      <c r="F41" s="260"/>
+      <c r="G41" s="264"/>
       <c r="H41" s="68"/>
       <c r="I41" s="70"/>
       <c r="M41" s="70"/>
@@ -8085,8 +8071,8 @@
       <c r="N42" s="75"/>
       <c r="O42" s="65"/>
       <c r="P42" s="66"/>
-      <c r="V42" s="245"/>
-      <c r="W42" s="246"/>
+      <c r="V42" s="262"/>
+      <c r="W42" s="263"/>
       <c r="X42" s="68"/>
     </row>
     <row r="43" spans="1:24" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8179,6 +8165,20 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B8:D8"/>
@@ -8189,20 +8189,6 @@
     <mergeCell ref="B7:L7"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="J8:L8"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="N39:P39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テンプレート/【テンプレ】リリース内表.xlsx
+++ b/テンプレート/【テンプレ】リリース内表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-tsuji\AIアプリ開発\release-creator\テンプレート\テンプレ（変更上書きしないで！）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-tsuji\AIアプリ開発\release-creator\テンプレート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0466FDC-AF37-4C7A-AEC9-05939B52FE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BFEDDE-0514-468F-8806-E66253C250CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15915" yWindow="-16440" windowWidth="29040" windowHeight="15720" xr2:uid="{6E343390-06FF-432A-B5B0-133372514813}"/>
+    <workbookView xWindow="-7320" yWindow="-12000" windowWidth="17280" windowHeight="9960" xr2:uid="{6E343390-06FF-432A-B5B0-133372514813}"/>
   </bookViews>
   <sheets>
     <sheet name="総合1つ" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="68">
   <si>
     <t>順位</t>
     <rPh sb="0" eb="2">
@@ -596,38 +596,6 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>調査 ランキング名 評価項目別ランキング</t>
-    </r>
-    <rPh sb="24" eb="25">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>2025年 オリコン顧客満足度</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="BIZ UDPゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>®</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="BIZ UDPゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
       <t>調査 ランキング名 部門別ランキング</t>
     </r>
     <rPh sb="24" eb="25">
@@ -677,13 +645,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ランキング名 (回答者数：x,xxx名)</t>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>2025年 オリコン顧客満足度</t>
     </r>
@@ -768,9 +729,6 @@
       <t>ソウゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ランキング名 (回答者数：x,xxx名)</t>
   </si>
   <si>
     <r>
@@ -804,6 +762,70 @@
   <si>
     <t>※上記順位以降はサイトに掲載しております。
 調査主体：株式会社oricon ME（202x年xx月x日発表）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>携帯キャリア (回答者数：8,464名)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楽天モバイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>au</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>docomo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SoftBank</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総合 (回答者数：8,464名)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加入手続き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2025年 オリコン顧客満足度(R)調査 携帯キャリア 評価項目別ランキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンペーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期設定のしやすさ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通信速度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料金プラン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端末のラインナップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用料金</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サポートサービス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付帯サービス</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2208,6 +2230,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2372,17 +2397,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2416,12 +2441,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2479,17 +2498,20 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3144,7 +3166,7 @@
       <c r="B3" s="170"/>
       <c r="C3" s="192"/>
       <c r="D3" s="193" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E3" s="194"/>
       <c r="F3" s="191"/>
@@ -3155,11 +3177,11 @@
     <row r="4" spans="1:9" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="195" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="195"/>
-      <c r="E4" s="196"/>
+      <c r="C4" s="196" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="196"/>
+      <c r="E4" s="197"/>
     </row>
     <row r="5" spans="1:9" s="40" customFormat="1" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="39"/>
@@ -3181,10 +3203,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E6" s="17">
-        <v>0</v>
+        <v>69.52</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3194,10 +3216,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="E7" s="19">
-        <v>0</v>
+        <v>66.849999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3207,10 +3229,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E8" s="21">
-        <v>0</v>
+        <v>66.55</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3220,10 +3242,10 @@
         <v>19</v>
       </c>
       <c r="D9" s="176" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="E9" s="23">
-        <v>0</v>
+        <v>66.180000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3241,11 +3263,11 @@
     </row>
     <row r="11" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
-      <c r="C11" s="197" t="s">
+      <c r="C11" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="197"/>
-      <c r="E11" s="198"/>
+      <c r="D11" s="198"/>
+      <c r="E11" s="199"/>
     </row>
     <row r="12" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I12" s="177"/>
@@ -3316,49 +3338,49 @@
     <row r="1" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="D1" s="199" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
+      <c r="D1" s="200" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="170"/>
       <c r="B2" s="170"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
       <c r="I2" s="170"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="170"/>
       <c r="B3" s="170"/>
       <c r="C3" s="170"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
       <c r="I3" s="170"/>
     </row>
     <row r="4" spans="1:9" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="203" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="203"/>
-      <c r="E4" s="204"/>
+      <c r="C4" s="204" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="204"/>
+      <c r="E4" s="205"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="203" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="203"/>
-      <c r="I4" s="204"/>
+      <c r="G4" s="204" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="204"/>
+      <c r="I4" s="205"/>
     </row>
     <row r="5" spans="1:9" s="40" customFormat="1" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="39"/>
@@ -3390,20 +3412,20 @@
         <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E6" s="17">
-        <v>0</v>
+        <v>69.52</v>
       </c>
       <c r="F6" s="174"/>
       <c r="G6" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I6" s="17">
-        <v>0</v>
+        <v>73.260000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3413,20 +3435,20 @@
         <v>4</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="E7" s="19">
-        <v>0</v>
+        <v>66.849999999999994</v>
       </c>
       <c r="F7" s="174"/>
       <c r="G7" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I7" s="19">
-        <v>0</v>
+        <v>70.42</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3436,20 +3458,20 @@
         <v>5</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E8" s="21">
-        <v>0</v>
+        <v>66.55</v>
       </c>
       <c r="F8" s="174"/>
       <c r="G8" s="20" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I8" s="21">
-        <v>0</v>
+        <v>69.88</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3459,20 +3481,20 @@
         <v>19</v>
       </c>
       <c r="D9" s="176" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="E9" s="23">
-        <v>0</v>
+        <v>66.180000000000007</v>
       </c>
       <c r="F9" s="175"/>
       <c r="G9" s="22" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="176" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I9" s="23">
-        <v>0</v>
+        <v>69.33</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3489,7 +3511,7 @@
       </c>
       <c r="F10" s="175"/>
       <c r="G10" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="176" t="s">
         <v>20</v>
@@ -3500,17 +3522,17 @@
     </row>
     <row r="11" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
-      <c r="C11" s="197" t="s">
+      <c r="C11" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="197"/>
-      <c r="E11" s="198"/>
+      <c r="D11" s="198"/>
+      <c r="E11" s="199"/>
       <c r="F11" s="138"/>
-      <c r="G11" s="197" t="s">
+      <c r="G11" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="197"/>
-      <c r="I11" s="198"/>
+      <c r="H11" s="198"/>
+      <c r="I11" s="199"/>
     </row>
     <row r="12" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I12" s="177"/>
@@ -3616,72 +3638,72 @@
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="137"/>
-      <c r="I2" s="197" t="s">
+      <c r="I2" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="198"/>
+      <c r="J2" s="199"/>
       <c r="K2" s="4" t="s">
         <v>42</v>
       </c>
       <c r="L2" s="2"/>
-      <c r="M2" s="233" t="s">
+      <c r="M2" s="234" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="234"/>
+      <c r="N2" s="235"/>
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="B3" s="231" t="s">
+      <c r="B3" s="232" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="231"/>
-      <c r="D3" s="231"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
       <c r="F3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="227" t="s">
+      <c r="G3" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="227"/>
-      <c r="I3" s="227"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="225" t="s">
+      <c r="H3" s="228"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="226" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="226"/>
-      <c r="M3" s="235"/>
-      <c r="N3" s="236"/>
+      <c r="L3" s="227"/>
+      <c r="M3" s="236"/>
+      <c r="N3" s="237"/>
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="231"/>
-      <c r="C4" s="231"/>
-      <c r="D4" s="231"/>
+      <c r="B4" s="232"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="232"/>
       <c r="E4" s="119"/>
       <c r="F4" s="143"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="227"/>
-      <c r="J4" s="228"/>
-      <c r="K4" s="225"/>
-      <c r="L4" s="226"/>
-      <c r="M4" s="237"/>
-      <c r="N4" s="238"/>
+      <c r="G4" s="228"/>
+      <c r="H4" s="228"/>
+      <c r="I4" s="228"/>
+      <c r="J4" s="229"/>
+      <c r="K4" s="226"/>
+      <c r="L4" s="227"/>
+      <c r="M4" s="238"/>
+      <c r="N4" s="239"/>
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="232"/>
-      <c r="C5" s="232"/>
-      <c r="D5" s="232"/>
+      <c r="B5" s="233"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
       <c r="E5" s="71"/>
       <c r="F5" s="138"/>
-      <c r="G5" s="227"/>
-      <c r="H5" s="227"/>
-      <c r="I5" s="227"/>
-      <c r="J5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="229"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -3693,10 +3715,10 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="G6" s="229"/>
-      <c r="H6" s="229"/>
-      <c r="I6" s="229"/>
-      <c r="J6" s="230"/>
+      <c r="G6" s="230"/>
+      <c r="H6" s="230"/>
+      <c r="I6" s="230"/>
+      <c r="J6" s="231"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -3708,8 +3730,8 @@
       <c r="I7" s="181"/>
       <c r="J7" s="182"/>
       <c r="L7" s="51"/>
-      <c r="M7" s="216"/>
-      <c r="N7" s="216"/>
+      <c r="M7" s="217"/>
+      <c r="N7" s="217"/>
       <c r="O7" s="51"/>
       <c r="P7" s="71"/>
       <c r="Q7" s="71"/>
@@ -3721,25 +3743,25 @@
       <c r="A8" s="2"/>
       <c r="B8" s="73"/>
       <c r="C8" s="180" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="179"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="183"/>
       <c r="I8" s="187" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J8" s="184"/>
       <c r="L8" s="51"/>
-      <c r="M8" s="217"/>
-      <c r="N8" s="217"/>
+      <c r="M8" s="218"/>
+      <c r="N8" s="218"/>
       <c r="O8" s="96"/>
       <c r="P8" s="98"/>
       <c r="Q8" s="98"/>
-      <c r="R8" s="205"/>
-      <c r="S8" s="205"/>
-      <c r="T8" s="206"/>
+      <c r="R8" s="206"/>
+      <c r="S8" s="206"/>
+      <c r="T8" s="207"/>
     </row>
     <row r="9" spans="1:20" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
@@ -3757,14 +3779,14 @@
       </c>
       <c r="J9" s="186"/>
       <c r="L9" s="100"/>
-      <c r="M9" s="218"/>
-      <c r="N9" s="218"/>
+      <c r="M9" s="219"/>
+      <c r="N9" s="219"/>
       <c r="O9" s="100"/>
       <c r="P9" s="101"/>
       <c r="Q9" s="101"/>
-      <c r="R9" s="207"/>
-      <c r="S9" s="207"/>
-      <c r="T9" s="208"/>
+      <c r="R9" s="208"/>
+      <c r="S9" s="208"/>
+      <c r="T9" s="209"/>
     </row>
     <row r="10" spans="1:20" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="38"/>
@@ -3778,10 +3800,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="39"/>
-      <c r="F10" s="209" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="210"/>
+      <c r="F10" s="210" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="211"/>
       <c r="H10" s="55" t="s">
         <v>12</v>
       </c>
@@ -3795,8 +3817,8 @@
       <c r="M10" s="49"/>
       <c r="N10" s="49"/>
       <c r="O10" s="102"/>
-      <c r="P10" s="211"/>
-      <c r="Q10" s="212"/>
+      <c r="P10" s="212"/>
+      <c r="Q10" s="213"/>
       <c r="R10" s="103"/>
       <c r="S10" s="103"/>
       <c r="T10" s="103"/>
@@ -3807,10 +3829,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D11" s="17">
-        <v>0</v>
+        <v>69.52</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="34"/>
@@ -3821,10 +3843,10 @@
         <v>30</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="J11" s="17">
-        <v>0</v>
+        <v>69.52</v>
       </c>
       <c r="L11" s="33" t="s">
         <v>37</v>
@@ -3845,10 +3867,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D12" s="19">
-        <v>0</v>
+        <v>66.849999999999994</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="35"/>
@@ -3859,10 +3881,10 @@
         <v>30</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="J12" s="19">
-        <v>0</v>
+        <v>66.849999999999994</v>
       </c>
       <c r="L12" s="33" t="s">
         <v>38</v>
@@ -3883,10 +3905,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D13" s="21">
-        <v>0</v>
+        <v>66.55</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="36"/>
@@ -3897,10 +3919,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="J13" s="21">
-        <v>0</v>
+        <v>66.55</v>
       </c>
       <c r="L13" s="85"/>
       <c r="M13" s="50"/>
@@ -3918,10 +3940,10 @@
         <v>19</v>
       </c>
       <c r="C14" s="112" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D14" s="23">
-        <v>0</v>
+        <v>66.180000000000007</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="37"/>
@@ -3932,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="112" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="J14" s="23">
-        <v>0</v>
+        <v>66.180000000000007</v>
       </c>
       <c r="L14" s="85"/>
       <c r="M14" s="47"/>
@@ -3984,19 +4006,19 @@
     </row>
     <row r="16" spans="1:20" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
-      <c r="B16" s="197" t="s">
+      <c r="B16" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="197"/>
-      <c r="D16" s="198"/>
+      <c r="C16" s="198"/>
+      <c r="D16" s="199"/>
       <c r="E16" s="25"/>
       <c r="F16" s="87"/>
       <c r="G16" s="88"/>
-      <c r="H16" s="239" t="s">
+      <c r="H16" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="240"/>
-      <c r="J16" s="241"/>
+      <c r="I16" s="241"/>
+      <c r="J16" s="242"/>
       <c r="L16" s="96"/>
       <c r="M16" s="123"/>
       <c r="N16" s="104"/>
@@ -4052,13 +4074,13 @@
     <row r="19" spans="1:20" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="96"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="231"/>
+      <c r="C19" s="232"/>
+      <c r="D19" s="232"/>
       <c r="E19" s="25"/>
       <c r="F19" s="87"/>
-      <c r="H19" s="242"/>
-      <c r="I19" s="197"/>
-      <c r="J19" s="198"/>
+      <c r="H19" s="243"/>
+      <c r="I19" s="198"/>
+      <c r="J19" s="199"/>
       <c r="L19" s="96"/>
       <c r="M19" s="123"/>
       <c r="N19" s="104"/>
@@ -4070,14 +4092,14 @@
       <c r="T19" s="104"/>
     </row>
     <row r="20" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="231"/>
-      <c r="D20" s="231"/>
+      <c r="C20" s="232"/>
+      <c r="D20" s="232"/>
       <c r="E20" s="119"/>
       <c r="F20" s="87"/>
-      <c r="G20" s="242"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="197"/>
-      <c r="J20" s="198"/>
+      <c r="G20" s="243"/>
+      <c r="H20" s="198"/>
+      <c r="I20" s="198"/>
+      <c r="J20" s="199"/>
       <c r="L20" s="51"/>
       <c r="M20" s="51"/>
       <c r="N20" s="106"/>
@@ -4093,10 +4115,10 @@
       <c r="D21" s="141"/>
       <c r="E21" s="119"/>
       <c r="F21" s="119"/>
-      <c r="G21" s="243"/>
-      <c r="H21" s="229"/>
-      <c r="I21" s="229"/>
-      <c r="J21" s="230"/>
+      <c r="G21" s="244"/>
+      <c r="H21" s="230"/>
+      <c r="I21" s="230"/>
+      <c r="J21" s="231"/>
       <c r="L21" s="51"/>
       <c r="M21" s="51"/>
       <c r="N21" s="107"/>
@@ -4116,12 +4138,12 @@
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
       <c r="N22" s="51"/>
-      <c r="O22" s="213"/>
-      <c r="P22" s="214"/>
-      <c r="Q22" s="214"/>
-      <c r="R22" s="214"/>
-      <c r="S22" s="214"/>
-      <c r="T22" s="215"/>
+      <c r="O22" s="214"/>
+      <c r="P22" s="215"/>
+      <c r="Q22" s="215"/>
+      <c r="R22" s="215"/>
+      <c r="S22" s="215"/>
+      <c r="T22" s="216"/>
     </row>
     <row r="23" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="51"/>
@@ -4134,8 +4156,8 @@
       <c r="I23" s="71"/>
       <c r="J23" s="71"/>
       <c r="L23" s="51"/>
-      <c r="M23" s="216"/>
-      <c r="N23" s="216"/>
+      <c r="M23" s="217"/>
+      <c r="N23" s="217"/>
       <c r="O23" s="51"/>
       <c r="P23" s="71"/>
       <c r="Q23" s="71"/>
@@ -4151,18 +4173,18 @@
       <c r="E24" s="96"/>
       <c r="F24" s="98"/>
       <c r="G24" s="98"/>
-      <c r="H24" s="205"/>
-      <c r="I24" s="205"/>
-      <c r="J24" s="206"/>
+      <c r="H24" s="206"/>
+      <c r="I24" s="206"/>
+      <c r="J24" s="207"/>
       <c r="L24" s="99"/>
-      <c r="M24" s="217"/>
-      <c r="N24" s="217"/>
+      <c r="M24" s="218"/>
+      <c r="N24" s="218"/>
       <c r="O24" s="96"/>
       <c r="P24" s="98"/>
       <c r="Q24" s="98"/>
-      <c r="R24" s="205"/>
-      <c r="S24" s="205"/>
-      <c r="T24" s="206"/>
+      <c r="R24" s="206"/>
+      <c r="S24" s="206"/>
+      <c r="T24" s="207"/>
     </row>
     <row r="25" spans="1:20" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
@@ -4172,18 +4194,18 @@
       <c r="E25" s="100"/>
       <c r="F25" s="101"/>
       <c r="G25" s="101"/>
-      <c r="H25" s="207"/>
-      <c r="I25" s="207"/>
-      <c r="J25" s="208"/>
+      <c r="H25" s="208"/>
+      <c r="I25" s="208"/>
+      <c r="J25" s="209"/>
       <c r="L25" s="100"/>
-      <c r="M25" s="218"/>
-      <c r="N25" s="218"/>
+      <c r="M25" s="219"/>
+      <c r="N25" s="219"/>
       <c r="O25" s="100"/>
       <c r="P25" s="101"/>
       <c r="Q25" s="101"/>
-      <c r="R25" s="207"/>
-      <c r="S25" s="207"/>
-      <c r="T25" s="208"/>
+      <c r="R25" s="208"/>
+      <c r="S25" s="208"/>
+      <c r="T25" s="209"/>
     </row>
     <row r="26" spans="1:20" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="38"/>
@@ -4191,8 +4213,8 @@
       <c r="C26" s="49"/>
       <c r="D26" s="49"/>
       <c r="E26" s="102"/>
-      <c r="F26" s="211"/>
-      <c r="G26" s="212"/>
+      <c r="F26" s="212"/>
+      <c r="G26" s="213"/>
       <c r="H26" s="103"/>
       <c r="I26" s="103"/>
       <c r="J26" s="103"/>
@@ -4200,8 +4222,8 @@
       <c r="M26" s="49"/>
       <c r="N26" s="49"/>
       <c r="O26" s="102"/>
-      <c r="P26" s="211"/>
-      <c r="Q26" s="212"/>
+      <c r="P26" s="212"/>
+      <c r="Q26" s="213"/>
       <c r="R26" s="103"/>
       <c r="S26" s="103"/>
       <c r="T26" s="103"/>
@@ -4292,15 +4314,15 @@
     </row>
     <row r="31" spans="1:20" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
-      <c r="B31" s="219"/>
-      <c r="C31" s="220"/>
-      <c r="D31" s="221"/>
+      <c r="B31" s="220"/>
+      <c r="C31" s="221"/>
+      <c r="D31" s="222"/>
       <c r="E31" s="104"/>
       <c r="F31" s="87"/>
-      <c r="G31" s="220"/>
-      <c r="H31" s="220"/>
-      <c r="I31" s="220"/>
-      <c r="J31" s="220"/>
+      <c r="G31" s="221"/>
+      <c r="H31" s="221"/>
+      <c r="I31" s="221"/>
+      <c r="J31" s="221"/>
       <c r="K31" s="111"/>
       <c r="L31" s="85"/>
       <c r="M31" s="47"/>
@@ -4353,12 +4375,12 @@
       <c r="T33" s="108"/>
     </row>
     <row r="34" spans="1:21" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="222"/>
-      <c r="F34" s="223"/>
-      <c r="G34" s="223"/>
-      <c r="H34" s="223"/>
-      <c r="I34" s="223"/>
-      <c r="J34" s="224"/>
+      <c r="E34" s="223"/>
+      <c r="F34" s="224"/>
+      <c r="G34" s="224"/>
+      <c r="H34" s="224"/>
+      <c r="I34" s="224"/>
+      <c r="J34" s="225"/>
       <c r="L34" s="51"/>
       <c r="M34" s="51"/>
       <c r="N34" s="51"/>
@@ -4372,8 +4394,8 @@
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="58"/>
-      <c r="C35" s="216"/>
-      <c r="D35" s="216"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="217"/>
       <c r="E35" s="58"/>
       <c r="F35" s="97"/>
       <c r="G35" s="97"/>
@@ -4381,8 +4403,8 @@
       <c r="I35" s="97"/>
       <c r="J35" s="109"/>
       <c r="L35" s="58"/>
-      <c r="M35" s="216"/>
-      <c r="N35" s="216"/>
+      <c r="M35" s="217"/>
+      <c r="N35" s="217"/>
       <c r="O35" s="58"/>
       <c r="P35" s="97"/>
       <c r="Q35" s="97"/>
@@ -4393,44 +4415,44 @@
     <row r="36" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="99"/>
-      <c r="C36" s="217"/>
-      <c r="D36" s="217"/>
+      <c r="C36" s="218"/>
+      <c r="D36" s="218"/>
       <c r="E36" s="96"/>
       <c r="F36" s="98"/>
       <c r="G36" s="98"/>
-      <c r="H36" s="205"/>
-      <c r="I36" s="205"/>
-      <c r="J36" s="206"/>
+      <c r="H36" s="206"/>
+      <c r="I36" s="206"/>
+      <c r="J36" s="207"/>
       <c r="L36" s="99"/>
-      <c r="M36" s="217"/>
-      <c r="N36" s="217"/>
+      <c r="M36" s="218"/>
+      <c r="N36" s="218"/>
       <c r="O36" s="96"/>
       <c r="P36" s="98"/>
       <c r="Q36" s="98"/>
-      <c r="R36" s="205"/>
-      <c r="S36" s="205"/>
-      <c r="T36" s="206"/>
+      <c r="R36" s="206"/>
+      <c r="S36" s="206"/>
+      <c r="T36" s="207"/>
     </row>
     <row r="37" spans="1:21" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="100"/>
-      <c r="C37" s="218"/>
-      <c r="D37" s="218"/>
+      <c r="C37" s="219"/>
+      <c r="D37" s="219"/>
       <c r="E37" s="100"/>
       <c r="F37" s="101"/>
       <c r="G37" s="101"/>
-      <c r="H37" s="207"/>
-      <c r="I37" s="207"/>
-      <c r="J37" s="208"/>
+      <c r="H37" s="208"/>
+      <c r="I37" s="208"/>
+      <c r="J37" s="209"/>
       <c r="L37" s="100"/>
-      <c r="M37" s="218"/>
-      <c r="N37" s="218"/>
+      <c r="M37" s="219"/>
+      <c r="N37" s="219"/>
       <c r="O37" s="100"/>
       <c r="P37" s="101"/>
       <c r="Q37" s="101"/>
-      <c r="R37" s="207"/>
-      <c r="S37" s="207"/>
-      <c r="T37" s="208"/>
+      <c r="R37" s="208"/>
+      <c r="S37" s="208"/>
+      <c r="T37" s="209"/>
     </row>
     <row r="38" spans="1:21" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="38"/>
@@ -4438,8 +4460,8 @@
       <c r="C38" s="49"/>
       <c r="D38" s="49"/>
       <c r="E38" s="102"/>
-      <c r="F38" s="211"/>
-      <c r="G38" s="212"/>
+      <c r="F38" s="212"/>
+      <c r="G38" s="213"/>
       <c r="H38" s="103"/>
       <c r="I38" s="103"/>
       <c r="J38" s="103"/>
@@ -4447,8 +4469,8 @@
       <c r="M38" s="49"/>
       <c r="N38" s="49"/>
       <c r="O38" s="102"/>
-      <c r="P38" s="211"/>
-      <c r="Q38" s="212"/>
+      <c r="P38" s="212"/>
+      <c r="Q38" s="213"/>
       <c r="R38" s="103"/>
       <c r="S38" s="103"/>
       <c r="T38" s="103"/>
@@ -4618,18 +4640,18 @@
       <c r="L46" s="51"/>
       <c r="M46" s="51"/>
       <c r="N46" s="51"/>
-      <c r="O46" s="213"/>
-      <c r="P46" s="214"/>
-      <c r="Q46" s="214"/>
-      <c r="R46" s="214"/>
-      <c r="S46" s="214"/>
-      <c r="T46" s="215"/>
+      <c r="O46" s="214"/>
+      <c r="P46" s="215"/>
+      <c r="Q46" s="215"/>
+      <c r="R46" s="215"/>
+      <c r="S46" s="215"/>
+      <c r="T46" s="216"/>
       <c r="U46" s="51"/>
     </row>
     <row r="47" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="51"/>
-      <c r="C47" s="216"/>
-      <c r="D47" s="216"/>
+      <c r="C47" s="217"/>
+      <c r="D47" s="217"/>
       <c r="E47" s="51"/>
       <c r="F47" s="71"/>
       <c r="G47" s="71"/>
@@ -4637,8 +4659,8 @@
       <c r="I47" s="71"/>
       <c r="J47" s="71"/>
       <c r="L47" s="51"/>
-      <c r="M47" s="216"/>
-      <c r="N47" s="216"/>
+      <c r="M47" s="217"/>
+      <c r="N47" s="217"/>
       <c r="O47" s="51"/>
       <c r="P47" s="71"/>
       <c r="Q47" s="71"/>
@@ -4650,47 +4672,47 @@
     <row r="48" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="99"/>
-      <c r="C48" s="217"/>
-      <c r="D48" s="217"/>
+      <c r="C48" s="218"/>
+      <c r="D48" s="218"/>
       <c r="E48" s="96"/>
       <c r="F48" s="98"/>
       <c r="G48" s="98"/>
-      <c r="H48" s="205"/>
-      <c r="I48" s="205"/>
-      <c r="J48" s="206"/>
+      <c r="H48" s="206"/>
+      <c r="I48" s="206"/>
+      <c r="J48" s="207"/>
       <c r="K48" s="2"/>
       <c r="L48" s="99"/>
-      <c r="M48" s="217"/>
-      <c r="N48" s="217"/>
+      <c r="M48" s="218"/>
+      <c r="N48" s="218"/>
       <c r="O48" s="96"/>
       <c r="P48" s="98"/>
       <c r="Q48" s="98"/>
-      <c r="R48" s="205"/>
-      <c r="S48" s="205"/>
-      <c r="T48" s="206"/>
+      <c r="R48" s="206"/>
+      <c r="S48" s="206"/>
+      <c r="T48" s="207"/>
       <c r="U48" s="51"/>
     </row>
     <row r="49" spans="1:21" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="100"/>
-      <c r="C49" s="218"/>
-      <c r="D49" s="218"/>
+      <c r="C49" s="219"/>
+      <c r="D49" s="219"/>
       <c r="E49" s="100"/>
       <c r="F49" s="101"/>
       <c r="G49" s="101"/>
-      <c r="H49" s="207"/>
-      <c r="I49" s="207"/>
-      <c r="J49" s="208"/>
+      <c r="H49" s="208"/>
+      <c r="I49" s="208"/>
+      <c r="J49" s="209"/>
       <c r="K49" s="2"/>
       <c r="L49" s="100"/>
-      <c r="M49" s="218"/>
-      <c r="N49" s="218"/>
+      <c r="M49" s="219"/>
+      <c r="N49" s="219"/>
       <c r="O49" s="100"/>
       <c r="P49" s="101"/>
       <c r="Q49" s="101"/>
-      <c r="R49" s="207"/>
-      <c r="S49" s="207"/>
-      <c r="T49" s="208"/>
+      <c r="R49" s="208"/>
+      <c r="S49" s="208"/>
+      <c r="T49" s="209"/>
       <c r="U49" s="51"/>
     </row>
     <row r="50" spans="1:21" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4699,8 +4721,8 @@
       <c r="C50" s="49"/>
       <c r="D50" s="49"/>
       <c r="E50" s="102"/>
-      <c r="F50" s="211"/>
-      <c r="G50" s="212"/>
+      <c r="F50" s="212"/>
+      <c r="G50" s="213"/>
       <c r="H50" s="103"/>
       <c r="I50" s="103"/>
       <c r="J50" s="103"/>
@@ -4709,8 +4731,8 @@
       <c r="M50" s="49"/>
       <c r="N50" s="49"/>
       <c r="O50" s="102"/>
-      <c r="P50" s="211"/>
-      <c r="Q50" s="212"/>
+      <c r="P50" s="212"/>
+      <c r="Q50" s="213"/>
       <c r="R50" s="103"/>
       <c r="S50" s="103"/>
       <c r="T50" s="103"/>
@@ -5122,13 +5144,13 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="145"/>
-      <c r="F2" s="249" t="s">
+      <c r="F2" s="250" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="252"/>
       <c r="K2" s="146"/>
       <c r="L2" s="6"/>
       <c r="M2" s="52"/>
@@ -5136,17 +5158,17 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:21" ht="37.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="258" t="s">
+      <c r="B3" s="259" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="259"/>
+      <c r="C3" s="260"/>
       <c r="D3" s="6"/>
       <c r="E3" s="145"/>
-      <c r="F3" s="252"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="253"/>
-      <c r="I3" s="253"/>
-      <c r="J3" s="254"/>
+      <c r="F3" s="253"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="255"/>
       <c r="K3" s="146"/>
       <c r="L3" s="6"/>
       <c r="M3" s="52"/>
@@ -5158,11 +5180,11 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="145"/>
-      <c r="F4" s="255"/>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="257"/>
+      <c r="F4" s="256"/>
+      <c r="G4" s="257"/>
+      <c r="H4" s="257"/>
+      <c r="I4" s="257"/>
+      <c r="J4" s="258"/>
       <c r="K4" s="146"/>
       <c r="L4" s="6"/>
       <c r="M4" s="52"/>
@@ -5205,7 +5227,7 @@
     </row>
     <row r="7" spans="1:21" ht="29.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="15" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="150"/>
@@ -5224,25 +5246,25 @@
     <row r="8" spans="1:21" s="94" customFormat="1" ht="23.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="90"/>
       <c r="B8" s="91" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C8" s="92"/>
       <c r="D8" s="92"/>
       <c r="E8" s="93"/>
       <c r="F8" s="91" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G8" s="92"/>
       <c r="H8" s="92"/>
       <c r="I8" s="93"/>
       <c r="J8" s="91" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="K8" s="92"/>
       <c r="L8" s="92"/>
       <c r="M8" s="93"/>
       <c r="N8" s="91" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="O8" s="92"/>
       <c r="P8" s="92"/>
@@ -5297,40 +5319,40 @@
         <v>3</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D10" s="17">
-        <v>0</v>
+        <v>73.260000000000005</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="H10" s="17">
-        <v>0</v>
+        <v>71.77</v>
       </c>
       <c r="I10" s="48"/>
       <c r="J10" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="L10" s="17">
-        <v>0</v>
+        <v>72.66</v>
       </c>
       <c r="M10" s="48"/>
       <c r="N10" s="10" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="P10" s="17">
-        <v>0</v>
+        <v>71.52</v>
       </c>
       <c r="S10" s="40"/>
       <c r="T10" s="41"/>
@@ -5342,40 +5364,40 @@
         <v>4</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D11" s="19">
-        <v>0</v>
+        <v>70.42</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="12" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H11" s="19">
-        <v>0</v>
+        <v>66.22</v>
       </c>
       <c r="I11" s="48"/>
       <c r="J11" s="12" t="s">
         <v>4</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="L11" s="19">
-        <v>0</v>
+        <v>68.930000000000007</v>
       </c>
       <c r="M11" s="48"/>
       <c r="N11" s="12" t="s">
         <v>4</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="P11" s="19">
-        <v>0</v>
+        <v>71.22</v>
       </c>
       <c r="T11" s="1"/>
     </row>
@@ -5385,40 +5407,40 @@
         <v>5</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D12" s="21">
-        <v>0</v>
+        <v>69.88</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="H12" s="21">
-        <v>0</v>
+        <v>66.040000000000006</v>
       </c>
       <c r="I12" s="48"/>
       <c r="J12" s="11" t="s">
         <v>5</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="L12" s="21">
-        <v>0</v>
+        <v>68.150000000000006</v>
       </c>
       <c r="M12" s="48"/>
       <c r="N12" s="11" t="s">
         <v>5</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="P12" s="21">
-        <v>0</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="T12" s="1"/>
     </row>
@@ -5444,25 +5466,25 @@
     <row r="14" spans="1:21" s="79" customFormat="1" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76"/>
       <c r="B14" s="91" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C14" s="92"/>
       <c r="D14" s="92"/>
       <c r="E14" s="78"/>
       <c r="F14" s="74" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="G14" s="77"/>
       <c r="H14" s="77"/>
       <c r="I14" s="78"/>
       <c r="J14" s="91" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="K14" s="92"/>
       <c r="L14" s="92"/>
       <c r="M14" s="93"/>
       <c r="N14" s="91" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="O14" s="92"/>
       <c r="P14" s="92"/>
@@ -5519,40 +5541,40 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D16" s="17">
-        <v>0</v>
+        <v>73.34</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="H16" s="17">
-        <v>0</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="I16" s="48"/>
       <c r="J16" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="L16" s="17">
-        <v>0</v>
+        <v>69.56</v>
       </c>
       <c r="M16" s="48"/>
       <c r="N16" s="10" t="s">
         <v>3</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="P16" s="17">
-        <v>0</v>
+        <v>65.209999999999994</v>
       </c>
       <c r="S16" s="40"/>
       <c r="T16" s="40"/>
@@ -5563,40 +5585,40 @@
         <v>4</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D17" s="19">
-        <v>0</v>
+        <v>66.150000000000006</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="12" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H17" s="19">
-        <v>0</v>
+        <v>64.5</v>
       </c>
       <c r="I17" s="48"/>
       <c r="J17" s="12" t="s">
         <v>4</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="L17" s="19">
-        <v>0</v>
+        <v>65.66</v>
       </c>
       <c r="M17" s="48"/>
       <c r="N17" s="12" t="s">
         <v>4</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="P17" s="19">
-        <v>0</v>
+        <v>65.010000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5605,40 +5627,40 @@
         <v>16</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D18" s="21">
-        <v>0</v>
+        <v>65.849999999999994</v>
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="11" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="H18" s="21">
-        <v>0</v>
+        <v>64.17</v>
       </c>
       <c r="I18" s="48"/>
       <c r="J18" s="11" t="s">
         <v>5</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="L18" s="21">
-        <v>0</v>
+        <v>65.48</v>
       </c>
       <c r="M18" s="48"/>
       <c r="N18" s="11" t="s">
         <v>5</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="P18" s="21">
-        <v>0</v>
+        <v>64.55</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5671,7 +5693,7 @@
     <row r="20" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="54" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="C20" s="54" t="s">
         <v>7</v>
@@ -5760,10 +5782,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D22" s="19">
-        <v>0</v>
+        <v>69.3</v>
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="12" t="s">
@@ -5803,10 +5825,10 @@
         <v>16</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D23" s="21">
-        <v>0</v>
+        <v>66.59</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="11" t="s">
@@ -5843,17 +5865,22 @@
     <row r="24" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="124"/>
-      <c r="C24" s="127"/>
+      <c r="C24" s="127" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="4">
+        <v>66.28</v>
+      </c>
       <c r="I24" s="117"/>
       <c r="J24" s="115"/>
       <c r="K24" s="126"/>
-      <c r="L24" s="283"/>
-      <c r="M24" s="283"/>
-      <c r="N24" s="244" t="s">
-        <v>54</v>
-      </c>
-      <c r="O24" s="244"/>
-      <c r="P24" s="244"/>
+      <c r="L24" s="195"/>
+      <c r="M24" s="195"/>
+      <c r="N24" s="245" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24" s="245"/>
+      <c r="P24" s="245"/>
       <c r="Q24" s="113"/>
       <c r="R24" s="113"/>
       <c r="S24" s="113"/>
@@ -5890,7 +5917,7 @@
     <row r="27" spans="1:24" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -5901,14 +5928,14 @@
     </row>
     <row r="28" spans="1:24" s="69" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="67"/>
-      <c r="B28" s="260" t="s">
+      <c r="B28" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="261"/>
+      <c r="C28" s="249"/>
       <c r="D28" s="66"/>
       <c r="E28" s="66"/>
-      <c r="F28" s="260"/>
-      <c r="G28" s="261"/>
+      <c r="F28" s="248"/>
+      <c r="G28" s="249"/>
       <c r="H28" s="68"/>
       <c r="I28" s="70"/>
       <c r="J28" s="70"/>
@@ -5944,8 +5971,8 @@
       </c>
       <c r="O29" s="65"/>
       <c r="P29" s="66"/>
-      <c r="V29" s="262"/>
-      <c r="W29" s="263"/>
+      <c r="V29" s="261"/>
+      <c r="W29" s="262"/>
       <c r="X29" s="68"/>
     </row>
     <row r="30" spans="1:24" s="40" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6128,10 +6155,10 @@
     </row>
     <row r="34" spans="1:24" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
-      <c r="B34" s="260" t="s">
+      <c r="B34" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="261"/>
+      <c r="C34" s="249"/>
       <c r="D34" s="104"/>
       <c r="E34" s="58"/>
       <c r="F34" s="46"/>
@@ -6364,10 +6391,10 @@
     </row>
     <row r="40" spans="1:24" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="284" t="s">
+      <c r="B40" s="246" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="285"/>
+      <c r="C40" s="247"/>
       <c r="D40" s="104"/>
       <c r="E40" s="58"/>
       <c r="F40" s="46"/>
@@ -6587,16 +6614,16 @@
       <c r="P45" s="21">
         <v>0</v>
       </c>
-      <c r="V45" s="262"/>
-      <c r="W45" s="263"/>
+      <c r="V45" s="261"/>
+      <c r="W45" s="262"/>
       <c r="X45" s="68"/>
     </row>
     <row r="46" spans="1:24" s="40" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="41"/>
-      <c r="B46" s="260" t="s">
+      <c r="B46" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="261"/>
+      <c r="C46" s="249"/>
       <c r="D46" s="104"/>
       <c r="E46" s="58"/>
       <c r="F46" s="46"/>
@@ -6863,9 +6890,9 @@
       <c r="C55" s="51"/>
       <c r="D55" s="51"/>
       <c r="E55" s="118"/>
-      <c r="F55" s="265"/>
-      <c r="G55" s="266"/>
-      <c r="H55" s="266"/>
+      <c r="F55" s="264"/>
+      <c r="G55" s="265"/>
+      <c r="H55" s="265"/>
       <c r="J55" s="51"/>
       <c r="K55" s="51"/>
       <c r="L55" s="51"/>
@@ -6886,8 +6913,8 @@
     <row r="57" spans="1:24" s="69" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="67"/>
       <c r="E57" s="66"/>
-      <c r="F57" s="260"/>
-      <c r="G57" s="264"/>
+      <c r="F57" s="248"/>
+      <c r="G57" s="263"/>
       <c r="H57" s="68"/>
       <c r="I57" s="70"/>
       <c r="M57" s="70"/>
@@ -6905,8 +6932,8 @@
       <c r="N58" s="75"/>
       <c r="O58" s="65"/>
       <c r="P58" s="66"/>
-      <c r="V58" s="262"/>
-      <c r="W58" s="263"/>
+      <c r="V58" s="261"/>
+      <c r="W58" s="262"/>
       <c r="X58" s="68"/>
     </row>
     <row r="59" spans="1:24" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7004,6 +7031,7 @@
     <mergeCell ref="V45:W45"/>
     <mergeCell ref="F57:G57"/>
     <mergeCell ref="F55:H55"/>
+    <mergeCell ref="N24:P24"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="F2:J4"/>
@@ -7011,7 +7039,6 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="F28:G28"/>
-    <mergeCell ref="N24:P24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7077,13 +7104,13 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="145"/>
-      <c r="F2" s="249" t="s">
+      <c r="F2" s="250" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="252"/>
       <c r="K2" s="146"/>
       <c r="L2" s="6"/>
       <c r="M2" s="52"/>
@@ -7091,17 +7118,17 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:21" ht="43.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="258" t="s">
+      <c r="B3" s="259" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="259"/>
+      <c r="C3" s="260"/>
       <c r="D3" s="6"/>
       <c r="E3" s="145"/>
-      <c r="F3" s="252"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="253"/>
-      <c r="I3" s="253"/>
-      <c r="J3" s="254"/>
+      <c r="F3" s="253"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="255"/>
       <c r="K3" s="146"/>
       <c r="L3" s="6"/>
       <c r="M3" s="52"/>
@@ -7113,11 +7140,11 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="145"/>
-      <c r="F4" s="255"/>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="257"/>
+      <c r="F4" s="256"/>
+      <c r="G4" s="257"/>
+      <c r="H4" s="257"/>
+      <c r="I4" s="257"/>
+      <c r="J4" s="258"/>
       <c r="K4" s="146"/>
       <c r="L4" s="6"/>
       <c r="M4" s="52"/>
@@ -7125,10 +7152,10 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="32.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="271" t="s">
+      <c r="B5" s="270" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="244"/>
+      <c r="C5" s="245"/>
       <c r="D5" s="113"/>
       <c r="E5" s="169"/>
       <c r="F5" s="147"/>
@@ -7166,19 +7193,19 @@
     </row>
     <row r="7" spans="1:21" ht="59.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
-      <c r="B7" s="270" t="s">
+      <c r="B7" s="269" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="270"/>
-      <c r="D7" s="270"/>
-      <c r="E7" s="270"/>
-      <c r="F7" s="270"/>
-      <c r="G7" s="270"/>
-      <c r="H7" s="270"/>
-      <c r="I7" s="270"/>
-      <c r="J7" s="270"/>
-      <c r="K7" s="270"/>
-      <c r="L7" s="270"/>
+      <c r="C7" s="269"/>
+      <c r="D7" s="269"/>
+      <c r="E7" s="269"/>
+      <c r="F7" s="269"/>
+      <c r="G7" s="269"/>
+      <c r="H7" s="269"/>
+      <c r="I7" s="269"/>
+      <c r="J7" s="269"/>
+      <c r="K7" s="269"/>
+      <c r="L7" s="269"/>
       <c r="M7" s="58"/>
       <c r="N7" s="58"/>
       <c r="O7" s="58"/>
@@ -7188,23 +7215,23 @@
     </row>
     <row r="8" spans="1:21" s="94" customFormat="1" ht="23.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="90"/>
-      <c r="B8" s="267" t="s">
+      <c r="B8" s="266" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="268"/>
-      <c r="D8" s="269"/>
+      <c r="C8" s="267"/>
+      <c r="D8" s="268"/>
       <c r="E8" s="93"/>
-      <c r="F8" s="267" t="s">
+      <c r="F8" s="266" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="268"/>
-      <c r="H8" s="269"/>
+      <c r="G8" s="267"/>
+      <c r="H8" s="268"/>
       <c r="I8" s="58"/>
-      <c r="J8" s="267" t="s">
+      <c r="J8" s="266" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="268"/>
-      <c r="L8" s="269"/>
+      <c r="K8" s="267"/>
+      <c r="L8" s="268"/>
       <c r="M8" s="58"/>
       <c r="N8" s="58"/>
       <c r="O8" s="58"/>
@@ -7386,23 +7413,23 @@
     </row>
     <row r="15" spans="1:21" s="79" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="158"/>
-      <c r="B15" s="267" t="s">
+      <c r="B15" s="266" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="268"/>
-      <c r="D15" s="269"/>
+      <c r="C15" s="267"/>
+      <c r="D15" s="268"/>
       <c r="E15" s="93"/>
-      <c r="F15" s="267" t="s">
+      <c r="F15" s="266" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="268"/>
-      <c r="H15" s="269"/>
+      <c r="G15" s="267"/>
+      <c r="H15" s="268"/>
       <c r="I15" s="58"/>
-      <c r="J15" s="267" t="s">
+      <c r="J15" s="266" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="268"/>
-      <c r="L15" s="269"/>
+      <c r="K15" s="267"/>
+      <c r="L15" s="268"/>
       <c r="M15" s="58"/>
       <c r="N15" s="58"/>
       <c r="O15" s="58"/>
@@ -7568,10 +7595,10 @@
       <c r="H20" s="168"/>
       <c r="I20" s="58"/>
       <c r="J20" s="58"/>
-      <c r="K20" s="271" t="s">
+      <c r="K20" s="270" t="s">
         <v>28</v>
       </c>
-      <c r="L20" s="244"/>
+      <c r="L20" s="245"/>
       <c r="M20" s="58"/>
       <c r="N20" s="58"/>
       <c r="O20" s="58"/>
@@ -7580,15 +7607,15 @@
     </row>
     <row r="21" spans="1:21" s="94" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="90"/>
-      <c r="B21" s="272" t="s">
+      <c r="B21" s="271" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="272"/>
-      <c r="D21" s="272"/>
+      <c r="C21" s="271"/>
+      <c r="D21" s="271"/>
       <c r="E21" s="93"/>
-      <c r="F21" s="273"/>
-      <c r="G21" s="274"/>
-      <c r="H21" s="275"/>
+      <c r="F21" s="272"/>
+      <c r="G21" s="273"/>
+      <c r="H21" s="274"/>
       <c r="I21" s="166"/>
       <c r="J21" s="166"/>
       <c r="K21" s="166"/>
@@ -7602,11 +7629,11 @@
     </row>
     <row r="22" spans="1:21" s="40" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="41"/>
-      <c r="B22" s="277" t="s">
+      <c r="B22" s="276" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="278"/>
-      <c r="D22" s="278"/>
+      <c r="C22" s="277"/>
+      <c r="D22" s="277"/>
       <c r="E22" s="49"/>
       <c r="I22" s="49"/>
       <c r="J22" s="49"/>
@@ -7721,9 +7748,9 @@
     </row>
     <row r="27" spans="1:21" ht="7.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="161"/>
-      <c r="B27" s="276"/>
-      <c r="C27" s="276"/>
-      <c r="D27" s="276"/>
+      <c r="B27" s="275"/>
+      <c r="C27" s="275"/>
+      <c r="D27" s="275"/>
       <c r="E27" s="162"/>
       <c r="F27" s="162"/>
       <c r="G27" s="162"/>
@@ -7740,23 +7767,23 @@
     </row>
     <row r="28" spans="1:21" s="79" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="161"/>
-      <c r="B28" s="277" t="s">
+      <c r="B28" s="276" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="278"/>
-      <c r="D28" s="278"/>
+      <c r="C28" s="277"/>
+      <c r="D28" s="277"/>
       <c r="E28" s="162"/>
       <c r="F28" s="162"/>
       <c r="G28" s="162"/>
       <c r="H28" s="162"/>
       <c r="I28" s="78"/>
-      <c r="J28" s="279"/>
-      <c r="K28" s="280"/>
-      <c r="L28" s="280"/>
+      <c r="J28" s="278"/>
+      <c r="K28" s="279"/>
+      <c r="L28" s="279"/>
       <c r="M28" s="93"/>
-      <c r="N28" s="279"/>
-      <c r="O28" s="280"/>
-      <c r="P28" s="280"/>
+      <c r="N28" s="278"/>
+      <c r="O28" s="279"/>
+      <c r="P28" s="279"/>
       <c r="S28" s="80"/>
       <c r="T28" s="80"/>
     </row>
@@ -7883,11 +7910,11 @@
     </row>
     <row r="34" spans="1:24" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="161"/>
-      <c r="B34" s="277" t="s">
+      <c r="B34" s="276" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="278"/>
-      <c r="D34" s="281"/>
+      <c r="C34" s="277"/>
+      <c r="D34" s="280"/>
       <c r="E34" s="162"/>
       <c r="F34" s="162"/>
       <c r="G34" s="162"/>
@@ -7977,9 +8004,9 @@
       <c r="K37" s="50"/>
       <c r="L37" s="86"/>
       <c r="M37" s="48"/>
-      <c r="N37" s="245"/>
-      <c r="O37" s="246"/>
-      <c r="P37" s="247"/>
+      <c r="N37" s="281"/>
+      <c r="O37" s="282"/>
+      <c r="P37" s="283"/>
       <c r="R37" s="46"/>
       <c r="S37" s="50"/>
       <c r="T37" s="48"/>
@@ -8014,11 +8041,11 @@
     </row>
     <row r="39" spans="1:24" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
-      <c r="B39" s="245" t="s">
+      <c r="B39" s="281" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="246"/>
-      <c r="D39" s="282"/>
+      <c r="C39" s="282"/>
+      <c r="D39" s="284"/>
       <c r="E39" s="134"/>
       <c r="F39" s="135"/>
       <c r="G39" s="47"/>
@@ -8028,9 +8055,9 @@
       <c r="K39" s="136"/>
       <c r="L39" s="118"/>
       <c r="M39" s="118"/>
-      <c r="N39" s="248"/>
-      <c r="O39" s="248"/>
-      <c r="P39" s="248"/>
+      <c r="N39" s="285"/>
+      <c r="O39" s="285"/>
+      <c r="P39" s="285"/>
       <c r="Q39" s="63"/>
       <c r="R39" s="63"/>
       <c r="S39" s="63"/>
@@ -8052,8 +8079,8 @@
     <row r="41" spans="1:24" s="69" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="67"/>
       <c r="E41" s="66"/>
-      <c r="F41" s="260"/>
-      <c r="G41" s="264"/>
+      <c r="F41" s="248"/>
+      <c r="G41" s="263"/>
       <c r="H41" s="68"/>
       <c r="I41" s="70"/>
       <c r="M41" s="70"/>
@@ -8071,8 +8098,8 @@
       <c r="N42" s="75"/>
       <c r="O42" s="65"/>
       <c r="P42" s="66"/>
-      <c r="V42" s="262"/>
-      <c r="W42" s="263"/>
+      <c r="V42" s="261"/>
+      <c r="W42" s="262"/>
       <c r="X42" s="68"/>
     </row>
     <row r="43" spans="1:24" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/テンプレート/【テンプレ】リリース内表.xlsx
+++ b/テンプレート/【テンプレ】リリース内表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-tsuji\AIアプリ開発\release-creator\テンプレート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BFEDDE-0514-468F-8806-E66253C250CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCD0118-EE61-4269-9ACF-7800654E5CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-7320" yWindow="-12000" windowWidth="17280" windowHeight="9960" xr2:uid="{6E343390-06FF-432A-B5B0-133372514813}"/>
   </bookViews>
@@ -2263,6 +2263,88 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2271,12 +2353,37 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2287,111 +2394,18 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2403,9 +2417,6 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2442,16 +2453,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2464,54 +2512,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3646,64 +3646,64 @@
         <v>42</v>
       </c>
       <c r="L2" s="2"/>
-      <c r="M2" s="234" t="s">
+      <c r="M2" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="235"/>
+      <c r="N2" s="215"/>
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="B3" s="232" t="s">
+      <c r="B3" s="212" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
       <c r="F3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="228" t="s">
+      <c r="G3" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="226" t="s">
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="206" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="227"/>
-      <c r="M3" s="236"/>
-      <c r="N3" s="237"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="216"/>
+      <c r="N3" s="217"/>
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="232"/>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
+      <c r="B4" s="212"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
       <c r="E4" s="119"/>
       <c r="F4" s="143"/>
-      <c r="G4" s="228"/>
-      <c r="H4" s="228"/>
-      <c r="I4" s="228"/>
-      <c r="J4" s="229"/>
-      <c r="K4" s="226"/>
-      <c r="L4" s="227"/>
-      <c r="M4" s="238"/>
-      <c r="N4" s="239"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="209"/>
+      <c r="K4" s="206"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="218"/>
+      <c r="N4" s="219"/>
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="233"/>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
+      <c r="B5" s="213"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
       <c r="E5" s="71"/>
       <c r="F5" s="138"/>
-      <c r="G5" s="228"/>
-      <c r="H5" s="228"/>
-      <c r="I5" s="228"/>
-      <c r="J5" s="229"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="208"/>
+      <c r="I5" s="208"/>
+      <c r="J5" s="209"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -3715,10 +3715,10 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="G6" s="230"/>
-      <c r="H6" s="230"/>
-      <c r="I6" s="230"/>
-      <c r="J6" s="231"/>
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="210"/>
+      <c r="J6" s="211"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -3730,8 +3730,8 @@
       <c r="I7" s="181"/>
       <c r="J7" s="182"/>
       <c r="L7" s="51"/>
-      <c r="M7" s="217"/>
-      <c r="N7" s="217"/>
+      <c r="M7" s="224"/>
+      <c r="N7" s="224"/>
       <c r="O7" s="51"/>
       <c r="P7" s="71"/>
       <c r="Q7" s="71"/>
@@ -3754,14 +3754,14 @@
       </c>
       <c r="J8" s="184"/>
       <c r="L8" s="51"/>
-      <c r="M8" s="218"/>
-      <c r="N8" s="218"/>
+      <c r="M8" s="225"/>
+      <c r="N8" s="225"/>
       <c r="O8" s="96"/>
       <c r="P8" s="98"/>
       <c r="Q8" s="98"/>
-      <c r="R8" s="206"/>
-      <c r="S8" s="206"/>
-      <c r="T8" s="207"/>
+      <c r="R8" s="232"/>
+      <c r="S8" s="232"/>
+      <c r="T8" s="233"/>
     </row>
     <row r="9" spans="1:20" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
@@ -3779,14 +3779,14 @@
       </c>
       <c r="J9" s="186"/>
       <c r="L9" s="100"/>
-      <c r="M9" s="219"/>
-      <c r="N9" s="219"/>
+      <c r="M9" s="226"/>
+      <c r="N9" s="226"/>
       <c r="O9" s="100"/>
       <c r="P9" s="101"/>
       <c r="Q9" s="101"/>
-      <c r="R9" s="208"/>
-      <c r="S9" s="208"/>
-      <c r="T9" s="209"/>
+      <c r="R9" s="222"/>
+      <c r="S9" s="222"/>
+      <c r="T9" s="223"/>
     </row>
     <row r="10" spans="1:20" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="38"/>
@@ -3800,10 +3800,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="39"/>
-      <c r="F10" s="210" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="211"/>
+      <c r="F10" s="243" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="244"/>
       <c r="H10" s="55" t="s">
         <v>12</v>
       </c>
@@ -3817,8 +3817,8 @@
       <c r="M10" s="49"/>
       <c r="N10" s="49"/>
       <c r="O10" s="102"/>
-      <c r="P10" s="212"/>
-      <c r="Q10" s="213"/>
+      <c r="P10" s="220"/>
+      <c r="Q10" s="221"/>
       <c r="R10" s="103"/>
       <c r="S10" s="103"/>
       <c r="T10" s="103"/>
@@ -4014,11 +4014,11 @@
       <c r="E16" s="25"/>
       <c r="F16" s="87"/>
       <c r="G16" s="88"/>
-      <c r="H16" s="240" t="s">
+      <c r="H16" s="227" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="241"/>
-      <c r="J16" s="242"/>
+      <c r="I16" s="228"/>
+      <c r="J16" s="229"/>
       <c r="L16" s="96"/>
       <c r="M16" s="123"/>
       <c r="N16" s="104"/>
@@ -4074,11 +4074,11 @@
     <row r="19" spans="1:20" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="96"/>
-      <c r="C19" s="232"/>
-      <c r="D19" s="232"/>
+      <c r="C19" s="212"/>
+      <c r="D19" s="212"/>
       <c r="E19" s="25"/>
       <c r="F19" s="87"/>
-      <c r="H19" s="243"/>
+      <c r="H19" s="230"/>
       <c r="I19" s="198"/>
       <c r="J19" s="199"/>
       <c r="L19" s="96"/>
@@ -4092,11 +4092,11 @@
       <c r="T19" s="104"/>
     </row>
     <row r="20" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="232"/>
-      <c r="D20" s="232"/>
+      <c r="C20" s="212"/>
+      <c r="D20" s="212"/>
       <c r="E20" s="119"/>
       <c r="F20" s="87"/>
-      <c r="G20" s="243"/>
+      <c r="G20" s="230"/>
       <c r="H20" s="198"/>
       <c r="I20" s="198"/>
       <c r="J20" s="199"/>
@@ -4115,10 +4115,10 @@
       <c r="D21" s="141"/>
       <c r="E21" s="119"/>
       <c r="F21" s="119"/>
-      <c r="G21" s="244"/>
-      <c r="H21" s="230"/>
-      <c r="I21" s="230"/>
-      <c r="J21" s="231"/>
+      <c r="G21" s="231"/>
+      <c r="H21" s="210"/>
+      <c r="I21" s="210"/>
+      <c r="J21" s="211"/>
       <c r="L21" s="51"/>
       <c r="M21" s="51"/>
       <c r="N21" s="107"/>
@@ -4138,12 +4138,12 @@
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
       <c r="N22" s="51"/>
-      <c r="O22" s="214"/>
-      <c r="P22" s="215"/>
-      <c r="Q22" s="215"/>
-      <c r="R22" s="215"/>
-      <c r="S22" s="215"/>
-      <c r="T22" s="216"/>
+      <c r="O22" s="240"/>
+      <c r="P22" s="241"/>
+      <c r="Q22" s="241"/>
+      <c r="R22" s="241"/>
+      <c r="S22" s="241"/>
+      <c r="T22" s="242"/>
     </row>
     <row r="23" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="51"/>
@@ -4156,8 +4156,8 @@
       <c r="I23" s="71"/>
       <c r="J23" s="71"/>
       <c r="L23" s="51"/>
-      <c r="M23" s="217"/>
-      <c r="N23" s="217"/>
+      <c r="M23" s="224"/>
+      <c r="N23" s="224"/>
       <c r="O23" s="51"/>
       <c r="P23" s="71"/>
       <c r="Q23" s="71"/>
@@ -4173,18 +4173,18 @@
       <c r="E24" s="96"/>
       <c r="F24" s="98"/>
       <c r="G24" s="98"/>
-      <c r="H24" s="206"/>
-      <c r="I24" s="206"/>
-      <c r="J24" s="207"/>
+      <c r="H24" s="232"/>
+      <c r="I24" s="232"/>
+      <c r="J24" s="233"/>
       <c r="L24" s="99"/>
-      <c r="M24" s="218"/>
-      <c r="N24" s="218"/>
+      <c r="M24" s="225"/>
+      <c r="N24" s="225"/>
       <c r="O24" s="96"/>
       <c r="P24" s="98"/>
       <c r="Q24" s="98"/>
-      <c r="R24" s="206"/>
-      <c r="S24" s="206"/>
-      <c r="T24" s="207"/>
+      <c r="R24" s="232"/>
+      <c r="S24" s="232"/>
+      <c r="T24" s="233"/>
     </row>
     <row r="25" spans="1:20" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
@@ -4194,18 +4194,18 @@
       <c r="E25" s="100"/>
       <c r="F25" s="101"/>
       <c r="G25" s="101"/>
-      <c r="H25" s="208"/>
-      <c r="I25" s="208"/>
-      <c r="J25" s="209"/>
+      <c r="H25" s="222"/>
+      <c r="I25" s="222"/>
+      <c r="J25" s="223"/>
       <c r="L25" s="100"/>
-      <c r="M25" s="219"/>
-      <c r="N25" s="219"/>
+      <c r="M25" s="226"/>
+      <c r="N25" s="226"/>
       <c r="O25" s="100"/>
       <c r="P25" s="101"/>
       <c r="Q25" s="101"/>
-      <c r="R25" s="208"/>
-      <c r="S25" s="208"/>
-      <c r="T25" s="209"/>
+      <c r="R25" s="222"/>
+      <c r="S25" s="222"/>
+      <c r="T25" s="223"/>
     </row>
     <row r="26" spans="1:20" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="38"/>
@@ -4213,8 +4213,8 @@
       <c r="C26" s="49"/>
       <c r="D26" s="49"/>
       <c r="E26" s="102"/>
-      <c r="F26" s="212"/>
-      <c r="G26" s="213"/>
+      <c r="F26" s="220"/>
+      <c r="G26" s="221"/>
       <c r="H26" s="103"/>
       <c r="I26" s="103"/>
       <c r="J26" s="103"/>
@@ -4222,8 +4222,8 @@
       <c r="M26" s="49"/>
       <c r="N26" s="49"/>
       <c r="O26" s="102"/>
-      <c r="P26" s="212"/>
-      <c r="Q26" s="213"/>
+      <c r="P26" s="220"/>
+      <c r="Q26" s="221"/>
       <c r="R26" s="103"/>
       <c r="S26" s="103"/>
       <c r="T26" s="103"/>
@@ -4314,15 +4314,15 @@
     </row>
     <row r="31" spans="1:20" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
-      <c r="B31" s="220"/>
-      <c r="C31" s="221"/>
-      <c r="D31" s="222"/>
+      <c r="B31" s="234"/>
+      <c r="C31" s="235"/>
+      <c r="D31" s="236"/>
       <c r="E31" s="104"/>
       <c r="F31" s="87"/>
-      <c r="G31" s="221"/>
-      <c r="H31" s="221"/>
-      <c r="I31" s="221"/>
-      <c r="J31" s="221"/>
+      <c r="G31" s="235"/>
+      <c r="H31" s="235"/>
+      <c r="I31" s="235"/>
+      <c r="J31" s="235"/>
       <c r="K31" s="111"/>
       <c r="L31" s="85"/>
       <c r="M31" s="47"/>
@@ -4375,12 +4375,12 @@
       <c r="T33" s="108"/>
     </row>
     <row r="34" spans="1:21" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="223"/>
-      <c r="F34" s="224"/>
-      <c r="G34" s="224"/>
-      <c r="H34" s="224"/>
-      <c r="I34" s="224"/>
-      <c r="J34" s="225"/>
+      <c r="E34" s="237"/>
+      <c r="F34" s="238"/>
+      <c r="G34" s="238"/>
+      <c r="H34" s="238"/>
+      <c r="I34" s="238"/>
+      <c r="J34" s="239"/>
       <c r="L34" s="51"/>
       <c r="M34" s="51"/>
       <c r="N34" s="51"/>
@@ -4394,8 +4394,8 @@
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="58"/>
-      <c r="C35" s="217"/>
-      <c r="D35" s="217"/>
+      <c r="C35" s="224"/>
+      <c r="D35" s="224"/>
       <c r="E35" s="58"/>
       <c r="F35" s="97"/>
       <c r="G35" s="97"/>
@@ -4403,8 +4403,8 @@
       <c r="I35" s="97"/>
       <c r="J35" s="109"/>
       <c r="L35" s="58"/>
-      <c r="M35" s="217"/>
-      <c r="N35" s="217"/>
+      <c r="M35" s="224"/>
+      <c r="N35" s="224"/>
       <c r="O35" s="58"/>
       <c r="P35" s="97"/>
       <c r="Q35" s="97"/>
@@ -4415,44 +4415,44 @@
     <row r="36" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="99"/>
-      <c r="C36" s="218"/>
-      <c r="D36" s="218"/>
+      <c r="C36" s="225"/>
+      <c r="D36" s="225"/>
       <c r="E36" s="96"/>
       <c r="F36" s="98"/>
       <c r="G36" s="98"/>
-      <c r="H36" s="206"/>
-      <c r="I36" s="206"/>
-      <c r="J36" s="207"/>
+      <c r="H36" s="232"/>
+      <c r="I36" s="232"/>
+      <c r="J36" s="233"/>
       <c r="L36" s="99"/>
-      <c r="M36" s="218"/>
-      <c r="N36" s="218"/>
+      <c r="M36" s="225"/>
+      <c r="N36" s="225"/>
       <c r="O36" s="96"/>
       <c r="P36" s="98"/>
       <c r="Q36" s="98"/>
-      <c r="R36" s="206"/>
-      <c r="S36" s="206"/>
-      <c r="T36" s="207"/>
+      <c r="R36" s="232"/>
+      <c r="S36" s="232"/>
+      <c r="T36" s="233"/>
     </row>
     <row r="37" spans="1:21" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="100"/>
-      <c r="C37" s="219"/>
-      <c r="D37" s="219"/>
+      <c r="C37" s="226"/>
+      <c r="D37" s="226"/>
       <c r="E37" s="100"/>
       <c r="F37" s="101"/>
       <c r="G37" s="101"/>
-      <c r="H37" s="208"/>
-      <c r="I37" s="208"/>
-      <c r="J37" s="209"/>
+      <c r="H37" s="222"/>
+      <c r="I37" s="222"/>
+      <c r="J37" s="223"/>
       <c r="L37" s="100"/>
-      <c r="M37" s="219"/>
-      <c r="N37" s="219"/>
+      <c r="M37" s="226"/>
+      <c r="N37" s="226"/>
       <c r="O37" s="100"/>
       <c r="P37" s="101"/>
       <c r="Q37" s="101"/>
-      <c r="R37" s="208"/>
-      <c r="S37" s="208"/>
-      <c r="T37" s="209"/>
+      <c r="R37" s="222"/>
+      <c r="S37" s="222"/>
+      <c r="T37" s="223"/>
     </row>
     <row r="38" spans="1:21" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="38"/>
@@ -4460,8 +4460,8 @@
       <c r="C38" s="49"/>
       <c r="D38" s="49"/>
       <c r="E38" s="102"/>
-      <c r="F38" s="212"/>
-      <c r="G38" s="213"/>
+      <c r="F38" s="220"/>
+      <c r="G38" s="221"/>
       <c r="H38" s="103"/>
       <c r="I38" s="103"/>
       <c r="J38" s="103"/>
@@ -4469,8 +4469,8 @@
       <c r="M38" s="49"/>
       <c r="N38" s="49"/>
       <c r="O38" s="102"/>
-      <c r="P38" s="212"/>
-      <c r="Q38" s="213"/>
+      <c r="P38" s="220"/>
+      <c r="Q38" s="221"/>
       <c r="R38" s="103"/>
       <c r="S38" s="103"/>
       <c r="T38" s="103"/>
@@ -4640,18 +4640,18 @@
       <c r="L46" s="51"/>
       <c r="M46" s="51"/>
       <c r="N46" s="51"/>
-      <c r="O46" s="214"/>
-      <c r="P46" s="215"/>
-      <c r="Q46" s="215"/>
-      <c r="R46" s="215"/>
-      <c r="S46" s="215"/>
-      <c r="T46" s="216"/>
+      <c r="O46" s="240"/>
+      <c r="P46" s="241"/>
+      <c r="Q46" s="241"/>
+      <c r="R46" s="241"/>
+      <c r="S46" s="241"/>
+      <c r="T46" s="242"/>
       <c r="U46" s="51"/>
     </row>
     <row r="47" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="51"/>
-      <c r="C47" s="217"/>
-      <c r="D47" s="217"/>
+      <c r="C47" s="224"/>
+      <c r="D47" s="224"/>
       <c r="E47" s="51"/>
       <c r="F47" s="71"/>
       <c r="G47" s="71"/>
@@ -4659,8 +4659,8 @@
       <c r="I47" s="71"/>
       <c r="J47" s="71"/>
       <c r="L47" s="51"/>
-      <c r="M47" s="217"/>
-      <c r="N47" s="217"/>
+      <c r="M47" s="224"/>
+      <c r="N47" s="224"/>
       <c r="O47" s="51"/>
       <c r="P47" s="71"/>
       <c r="Q47" s="71"/>
@@ -4672,47 +4672,47 @@
     <row r="48" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="99"/>
-      <c r="C48" s="218"/>
-      <c r="D48" s="218"/>
+      <c r="C48" s="225"/>
+      <c r="D48" s="225"/>
       <c r="E48" s="96"/>
       <c r="F48" s="98"/>
       <c r="G48" s="98"/>
-      <c r="H48" s="206"/>
-      <c r="I48" s="206"/>
-      <c r="J48" s="207"/>
+      <c r="H48" s="232"/>
+      <c r="I48" s="232"/>
+      <c r="J48" s="233"/>
       <c r="K48" s="2"/>
       <c r="L48" s="99"/>
-      <c r="M48" s="218"/>
-      <c r="N48" s="218"/>
+      <c r="M48" s="225"/>
+      <c r="N48" s="225"/>
       <c r="O48" s="96"/>
       <c r="P48" s="98"/>
       <c r="Q48" s="98"/>
-      <c r="R48" s="206"/>
-      <c r="S48" s="206"/>
-      <c r="T48" s="207"/>
+      <c r="R48" s="232"/>
+      <c r="S48" s="232"/>
+      <c r="T48" s="233"/>
       <c r="U48" s="51"/>
     </row>
     <row r="49" spans="1:21" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="100"/>
-      <c r="C49" s="219"/>
-      <c r="D49" s="219"/>
+      <c r="C49" s="226"/>
+      <c r="D49" s="226"/>
       <c r="E49" s="100"/>
       <c r="F49" s="101"/>
       <c r="G49" s="101"/>
-      <c r="H49" s="208"/>
-      <c r="I49" s="208"/>
-      <c r="J49" s="209"/>
+      <c r="H49" s="222"/>
+      <c r="I49" s="222"/>
+      <c r="J49" s="223"/>
       <c r="K49" s="2"/>
       <c r="L49" s="100"/>
-      <c r="M49" s="219"/>
-      <c r="N49" s="219"/>
+      <c r="M49" s="226"/>
+      <c r="N49" s="226"/>
       <c r="O49" s="100"/>
       <c r="P49" s="101"/>
       <c r="Q49" s="101"/>
-      <c r="R49" s="208"/>
-      <c r="S49" s="208"/>
-      <c r="T49" s="209"/>
+      <c r="R49" s="222"/>
+      <c r="S49" s="222"/>
+      <c r="T49" s="223"/>
       <c r="U49" s="51"/>
     </row>
     <row r="50" spans="1:21" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4721,8 +4721,8 @@
       <c r="C50" s="49"/>
       <c r="D50" s="49"/>
       <c r="E50" s="102"/>
-      <c r="F50" s="212"/>
-      <c r="G50" s="213"/>
+      <c r="F50" s="220"/>
+      <c r="G50" s="221"/>
       <c r="H50" s="103"/>
       <c r="I50" s="103"/>
       <c r="J50" s="103"/>
@@ -4731,8 +4731,8 @@
       <c r="M50" s="49"/>
       <c r="N50" s="49"/>
       <c r="O50" s="102"/>
-      <c r="P50" s="212"/>
-      <c r="Q50" s="213"/>
+      <c r="P50" s="220"/>
+      <c r="Q50" s="221"/>
       <c r="R50" s="103"/>
       <c r="S50" s="103"/>
       <c r="T50" s="103"/>
@@ -4965,18 +4965,21 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="G3:J6"/>
-    <mergeCell ref="B3:D5"/>
-    <mergeCell ref="M2:N4"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="M7:N9"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="G20:J21"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="O46:T46"/>
+    <mergeCell ref="M35:N37"/>
+    <mergeCell ref="H36:J36"/>
     <mergeCell ref="P50:Q50"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="C47:D49"/>
@@ -4993,21 +4996,18 @@
     <mergeCell ref="M23:N25"/>
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="R24:T24"/>
-    <mergeCell ref="R48:T48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="O46:T46"/>
-    <mergeCell ref="M35:N37"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="G3:J6"/>
+    <mergeCell ref="B3:D5"/>
+    <mergeCell ref="M2:N4"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="M7:N9"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="G20:J21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F2:F3 F11:F17">
@@ -5144,13 +5144,13 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="145"/>
-      <c r="F2" s="250" t="s">
+      <c r="F2" s="255" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="252"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="257"/>
       <c r="K2" s="146"/>
       <c r="L2" s="6"/>
       <c r="M2" s="52"/>
@@ -5158,17 +5158,17 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:21" ht="37.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="259" t="s">
+      <c r="B3" s="264" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="260"/>
+      <c r="C3" s="265"/>
       <c r="D3" s="6"/>
       <c r="E3" s="145"/>
-      <c r="F3" s="253"/>
-      <c r="G3" s="254"/>
-      <c r="H3" s="254"/>
-      <c r="I3" s="254"/>
-      <c r="J3" s="255"/>
+      <c r="F3" s="258"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="260"/>
       <c r="K3" s="146"/>
       <c r="L3" s="6"/>
       <c r="M3" s="52"/>
@@ -5180,11 +5180,11 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="145"/>
-      <c r="F4" s="256"/>
-      <c r="G4" s="257"/>
-      <c r="H4" s="257"/>
-      <c r="I4" s="257"/>
-      <c r="J4" s="258"/>
+      <c r="F4" s="261"/>
+      <c r="G4" s="262"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="262"/>
+      <c r="J4" s="263"/>
       <c r="K4" s="146"/>
       <c r="L4" s="6"/>
       <c r="M4" s="52"/>
@@ -5876,11 +5876,11 @@
       <c r="K24" s="126"/>
       <c r="L24" s="195"/>
       <c r="M24" s="195"/>
-      <c r="N24" s="245" t="s">
+      <c r="N24" s="251" t="s">
         <v>51</v>
       </c>
-      <c r="O24" s="245"/>
-      <c r="P24" s="245"/>
+      <c r="O24" s="251"/>
+      <c r="P24" s="251"/>
       <c r="Q24" s="113"/>
       <c r="R24" s="113"/>
       <c r="S24" s="113"/>
@@ -5928,14 +5928,14 @@
     </row>
     <row r="28" spans="1:24" s="69" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="67"/>
-      <c r="B28" s="248" t="s">
+      <c r="B28" s="247" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="249"/>
+      <c r="C28" s="254"/>
       <c r="D28" s="66"/>
       <c r="E28" s="66"/>
-      <c r="F28" s="248"/>
-      <c r="G28" s="249"/>
+      <c r="F28" s="247"/>
+      <c r="G28" s="254"/>
       <c r="H28" s="68"/>
       <c r="I28" s="70"/>
       <c r="J28" s="70"/>
@@ -5971,8 +5971,8 @@
       </c>
       <c r="O29" s="65"/>
       <c r="P29" s="66"/>
-      <c r="V29" s="261"/>
-      <c r="W29" s="262"/>
+      <c r="V29" s="245"/>
+      <c r="W29" s="246"/>
       <c r="X29" s="68"/>
     </row>
     <row r="30" spans="1:24" s="40" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6155,10 +6155,10 @@
     </row>
     <row r="34" spans="1:24" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
-      <c r="B34" s="248" t="s">
+      <c r="B34" s="247" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="249"/>
+      <c r="C34" s="254"/>
       <c r="D34" s="104"/>
       <c r="E34" s="58"/>
       <c r="F34" s="46"/>
@@ -6391,10 +6391,10 @@
     </row>
     <row r="40" spans="1:24" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="246" t="s">
+      <c r="B40" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="247"/>
+      <c r="C40" s="253"/>
       <c r="D40" s="104"/>
       <c r="E40" s="58"/>
       <c r="F40" s="46"/>
@@ -6614,16 +6614,16 @@
       <c r="P45" s="21">
         <v>0</v>
       </c>
-      <c r="V45" s="261"/>
-      <c r="W45" s="262"/>
+      <c r="V45" s="245"/>
+      <c r="W45" s="246"/>
       <c r="X45" s="68"/>
     </row>
     <row r="46" spans="1:24" s="40" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="41"/>
-      <c r="B46" s="248" t="s">
+      <c r="B46" s="247" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="249"/>
+      <c r="C46" s="254"/>
       <c r="D46" s="104"/>
       <c r="E46" s="58"/>
       <c r="F46" s="46"/>
@@ -6890,9 +6890,9 @@
       <c r="C55" s="51"/>
       <c r="D55" s="51"/>
       <c r="E55" s="118"/>
-      <c r="F55" s="264"/>
-      <c r="G55" s="265"/>
-      <c r="H55" s="265"/>
+      <c r="F55" s="249"/>
+      <c r="G55" s="250"/>
+      <c r="H55" s="250"/>
       <c r="J55" s="51"/>
       <c r="K55" s="51"/>
       <c r="L55" s="51"/>
@@ -6913,8 +6913,8 @@
     <row r="57" spans="1:24" s="69" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="67"/>
       <c r="E57" s="66"/>
-      <c r="F57" s="248"/>
-      <c r="G57" s="263"/>
+      <c r="F57" s="247"/>
+      <c r="G57" s="248"/>
       <c r="H57" s="68"/>
       <c r="I57" s="70"/>
       <c r="M57" s="70"/>
@@ -6932,8 +6932,8 @@
       <c r="N58" s="75"/>
       <c r="O58" s="65"/>
       <c r="P58" s="66"/>
-      <c r="V58" s="261"/>
-      <c r="W58" s="262"/>
+      <c r="V58" s="245"/>
+      <c r="W58" s="246"/>
       <c r="X58" s="68"/>
     </row>
     <row r="59" spans="1:24" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7026,11 +7026,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F55:H55"/>
     <mergeCell ref="N24:P24"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B46:C46"/>
@@ -7039,6 +7034,11 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="F28:G28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F55:H55"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7104,13 +7104,13 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="145"/>
-      <c r="F2" s="250" t="s">
+      <c r="F2" s="255" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="252"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="257"/>
       <c r="K2" s="146"/>
       <c r="L2" s="6"/>
       <c r="M2" s="52"/>
@@ -7118,17 +7118,17 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:21" ht="43.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="259" t="s">
+      <c r="B3" s="264" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="260"/>
+      <c r="C3" s="265"/>
       <c r="D3" s="6"/>
       <c r="E3" s="145"/>
-      <c r="F3" s="253"/>
-      <c r="G3" s="254"/>
-      <c r="H3" s="254"/>
-      <c r="I3" s="254"/>
-      <c r="J3" s="255"/>
+      <c r="F3" s="258"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="260"/>
       <c r="K3" s="146"/>
       <c r="L3" s="6"/>
       <c r="M3" s="52"/>
@@ -7140,11 +7140,11 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="145"/>
-      <c r="F4" s="256"/>
-      <c r="G4" s="257"/>
-      <c r="H4" s="257"/>
-      <c r="I4" s="257"/>
-      <c r="J4" s="258"/>
+      <c r="F4" s="261"/>
+      <c r="G4" s="262"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="262"/>
+      <c r="J4" s="263"/>
       <c r="K4" s="146"/>
       <c r="L4" s="6"/>
       <c r="M4" s="52"/>
@@ -7152,10 +7152,10 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="32.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="270" t="s">
+      <c r="B5" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="245"/>
+      <c r="C5" s="251"/>
       <c r="D5" s="113"/>
       <c r="E5" s="169"/>
       <c r="F5" s="147"/>
@@ -7193,19 +7193,19 @@
     </row>
     <row r="7" spans="1:21" ht="59.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
-      <c r="B7" s="269" t="s">
+      <c r="B7" s="285" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="269"/>
-      <c r="D7" s="269"/>
-      <c r="E7" s="269"/>
-      <c r="F7" s="269"/>
-      <c r="G7" s="269"/>
-      <c r="H7" s="269"/>
-      <c r="I7" s="269"/>
-      <c r="J7" s="269"/>
-      <c r="K7" s="269"/>
-      <c r="L7" s="269"/>
+      <c r="C7" s="285"/>
+      <c r="D7" s="285"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="285"/>
+      <c r="G7" s="285"/>
+      <c r="H7" s="285"/>
+      <c r="I7" s="285"/>
+      <c r="J7" s="285"/>
+      <c r="K7" s="285"/>
+      <c r="L7" s="285"/>
       <c r="M7" s="58"/>
       <c r="N7" s="58"/>
       <c r="O7" s="58"/>
@@ -7215,23 +7215,23 @@
     </row>
     <row r="8" spans="1:21" s="94" customFormat="1" ht="23.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="90"/>
-      <c r="B8" s="266" t="s">
+      <c r="B8" s="282" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="267"/>
-      <c r="D8" s="268"/>
+      <c r="C8" s="283"/>
+      <c r="D8" s="284"/>
       <c r="E8" s="93"/>
-      <c r="F8" s="266" t="s">
+      <c r="F8" s="282" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="267"/>
-      <c r="H8" s="268"/>
+      <c r="G8" s="283"/>
+      <c r="H8" s="284"/>
       <c r="I8" s="58"/>
-      <c r="J8" s="266" t="s">
+      <c r="J8" s="282" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="267"/>
-      <c r="L8" s="268"/>
+      <c r="K8" s="283"/>
+      <c r="L8" s="284"/>
       <c r="M8" s="58"/>
       <c r="N8" s="58"/>
       <c r="O8" s="58"/>
@@ -7413,23 +7413,23 @@
     </row>
     <row r="15" spans="1:21" s="79" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="158"/>
-      <c r="B15" s="266" t="s">
+      <c r="B15" s="282" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="267"/>
-      <c r="D15" s="268"/>
+      <c r="C15" s="283"/>
+      <c r="D15" s="284"/>
       <c r="E15" s="93"/>
-      <c r="F15" s="266" t="s">
+      <c r="F15" s="282" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="267"/>
-      <c r="H15" s="268"/>
+      <c r="G15" s="283"/>
+      <c r="H15" s="284"/>
       <c r="I15" s="58"/>
-      <c r="J15" s="266" t="s">
+      <c r="J15" s="282" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="267"/>
-      <c r="L15" s="268"/>
+      <c r="K15" s="283"/>
+      <c r="L15" s="284"/>
       <c r="M15" s="58"/>
       <c r="N15" s="58"/>
       <c r="O15" s="58"/>
@@ -7595,10 +7595,10 @@
       <c r="H20" s="168"/>
       <c r="I20" s="58"/>
       <c r="J20" s="58"/>
-      <c r="K20" s="270" t="s">
+      <c r="K20" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="L20" s="245"/>
+      <c r="L20" s="251"/>
       <c r="M20" s="58"/>
       <c r="N20" s="58"/>
       <c r="O20" s="58"/>
@@ -7607,15 +7607,15 @@
     </row>
     <row r="21" spans="1:21" s="94" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="90"/>
-      <c r="B21" s="271" t="s">
+      <c r="B21" s="277" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="271"/>
-      <c r="D21" s="271"/>
+      <c r="C21" s="277"/>
+      <c r="D21" s="277"/>
       <c r="E21" s="93"/>
-      <c r="F21" s="272"/>
-      <c r="G21" s="273"/>
-      <c r="H21" s="274"/>
+      <c r="F21" s="278"/>
+      <c r="G21" s="279"/>
+      <c r="H21" s="280"/>
       <c r="I21" s="166"/>
       <c r="J21" s="166"/>
       <c r="K21" s="166"/>
@@ -7629,11 +7629,11 @@
     </row>
     <row r="22" spans="1:21" s="40" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="41"/>
-      <c r="B22" s="276" t="s">
+      <c r="B22" s="268" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="277"/>
-      <c r="D22" s="277"/>
+      <c r="C22" s="269"/>
+      <c r="D22" s="269"/>
       <c r="E22" s="49"/>
       <c r="I22" s="49"/>
       <c r="J22" s="49"/>
@@ -7748,9 +7748,9 @@
     </row>
     <row r="27" spans="1:21" ht="7.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="161"/>
-      <c r="B27" s="275"/>
-      <c r="C27" s="275"/>
-      <c r="D27" s="275"/>
+      <c r="B27" s="281"/>
+      <c r="C27" s="281"/>
+      <c r="D27" s="281"/>
       <c r="E27" s="162"/>
       <c r="F27" s="162"/>
       <c r="G27" s="162"/>
@@ -7767,23 +7767,23 @@
     </row>
     <row r="28" spans="1:21" s="79" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="161"/>
-      <c r="B28" s="276" t="s">
+      <c r="B28" s="268" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="277"/>
-      <c r="D28" s="277"/>
+      <c r="C28" s="269"/>
+      <c r="D28" s="269"/>
       <c r="E28" s="162"/>
       <c r="F28" s="162"/>
       <c r="G28" s="162"/>
       <c r="H28" s="162"/>
       <c r="I28" s="78"/>
-      <c r="J28" s="278"/>
-      <c r="K28" s="279"/>
-      <c r="L28" s="279"/>
+      <c r="J28" s="266"/>
+      <c r="K28" s="267"/>
+      <c r="L28" s="267"/>
       <c r="M28" s="93"/>
-      <c r="N28" s="278"/>
-      <c r="O28" s="279"/>
-      <c r="P28" s="279"/>
+      <c r="N28" s="266"/>
+      <c r="O28" s="267"/>
+      <c r="P28" s="267"/>
       <c r="S28" s="80"/>
       <c r="T28" s="80"/>
     </row>
@@ -7910,11 +7910,11 @@
     </row>
     <row r="34" spans="1:24" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="161"/>
-      <c r="B34" s="276" t="s">
+      <c r="B34" s="268" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="277"/>
-      <c r="D34" s="280"/>
+      <c r="C34" s="269"/>
+      <c r="D34" s="270"/>
       <c r="E34" s="162"/>
       <c r="F34" s="162"/>
       <c r="G34" s="162"/>
@@ -8004,9 +8004,9 @@
       <c r="K37" s="50"/>
       <c r="L37" s="86"/>
       <c r="M37" s="48"/>
-      <c r="N37" s="281"/>
-      <c r="O37" s="282"/>
-      <c r="P37" s="283"/>
+      <c r="N37" s="271"/>
+      <c r="O37" s="272"/>
+      <c r="P37" s="273"/>
       <c r="R37" s="46"/>
       <c r="S37" s="50"/>
       <c r="T37" s="48"/>
@@ -8041,11 +8041,11 @@
     </row>
     <row r="39" spans="1:24" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
-      <c r="B39" s="281" t="s">
+      <c r="B39" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="282"/>
-      <c r="D39" s="284"/>
+      <c r="C39" s="272"/>
+      <c r="D39" s="274"/>
       <c r="E39" s="134"/>
       <c r="F39" s="135"/>
       <c r="G39" s="47"/>
@@ -8055,9 +8055,9 @@
       <c r="K39" s="136"/>
       <c r="L39" s="118"/>
       <c r="M39" s="118"/>
-      <c r="N39" s="285"/>
-      <c r="O39" s="285"/>
-      <c r="P39" s="285"/>
+      <c r="N39" s="275"/>
+      <c r="O39" s="275"/>
+      <c r="P39" s="275"/>
       <c r="Q39" s="63"/>
       <c r="R39" s="63"/>
       <c r="S39" s="63"/>
@@ -8079,8 +8079,8 @@
     <row r="41" spans="1:24" s="69" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="67"/>
       <c r="E41" s="66"/>
-      <c r="F41" s="248"/>
-      <c r="G41" s="263"/>
+      <c r="F41" s="247"/>
+      <c r="G41" s="248"/>
       <c r="H41" s="68"/>
       <c r="I41" s="70"/>
       <c r="M41" s="70"/>
@@ -8098,8 +8098,8 @@
       <c r="N42" s="75"/>
       <c r="O42" s="65"/>
       <c r="P42" s="66"/>
-      <c r="V42" s="261"/>
-      <c r="W42" s="262"/>
+      <c r="V42" s="245"/>
+      <c r="W42" s="246"/>
       <c r="X42" s="68"/>
     </row>
     <row r="43" spans="1:24" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8192,20 +8192,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="B22:D22"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B8:D8"/>
@@ -8216,6 +8202,20 @@
     <mergeCell ref="B7:L7"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="J8:L8"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="N39:P39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テンプレート/【テンプレ】リリース内表.xlsx
+++ b/テンプレート/【テンプレ】リリース内表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-tsuji\AIアプリ開発\release-creator\テンプレート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCD0118-EE61-4269-9ACF-7800654E5CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C1B1B4-D26F-4D67-AD50-2ADA49C14E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7320" yWindow="-12000" windowWidth="17280" windowHeight="9960" xr2:uid="{6E343390-06FF-432A-B5B0-133372514813}"/>
+    <workbookView xWindow="-15915" yWindow="-16440" windowWidth="29040" windowHeight="15720" xr2:uid="{6E343390-06FF-432A-B5B0-133372514813}"/>
   </bookViews>
   <sheets>
     <sheet name="総合1つ" sheetId="11" r:id="rId1"/>
